--- a/maps/LA/LA20C_candidates.xlsx
+++ b/maps/LA/LA20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/LA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F2CC8DC9-4767-9847-9EAC-DEAA87B59EC5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B5A00D-E118-8144-9641-28560B34178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="11420" yWindow="3660" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -557,7 +557,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="34">
+  <cellXfs count="29">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -587,11 +587,6 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -611,11 +606,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1135,18 +1130,18 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="8.1640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -1167,10 +1162,10 @@
       <c r="E1" s="20" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="4" t="s">
+      <c r="F1" s="20" t="s">
         <v>4</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="G1" s="20" t="s">
         <v>5</v>
       </c>
       <c r="H1" s="4" t="s">
@@ -1181,31 +1176,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31">
+      <c r="C2" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="23">
         <v>2139381.0131299999</v>
       </c>
-      <c r="E2" s="32">
+      <c r="E2" s="22">
         <v>2.034E-2</v>
       </c>
-      <c r="F2" s="33">
+      <c r="F2" s="22">
         <v>0</v>
       </c>
-      <c r="G2" s="33">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33">
+      <c r="G2" s="22">
+        <v>1</v>
+      </c>
+      <c r="H2" s="9">
         <v>0</v>
       </c>
-      <c r="I2" s="30" t="s">
+      <c r="I2" s="1" t="s">
         <v>18</v>
       </c>
     </row>
@@ -1225,10 +1220,10 @@
       <c r="E3" s="22">
         <v>2.034E-2</v>
       </c>
-      <c r="F3" s="9">
+      <c r="F3" s="22">
         <v>0</v>
       </c>
-      <c r="G3" s="9">
+      <c r="G3" s="22">
         <v>1</v>
       </c>
       <c r="H3" s="9">
@@ -1254,10 +1249,10 @@
       <c r="E4" s="22">
         <v>2.034E-2</v>
       </c>
-      <c r="F4" s="9">
+      <c r="F4" s="22">
         <v>0</v>
       </c>
-      <c r="G4" s="9">
+      <c r="G4" s="22">
         <v>1</v>
       </c>
       <c r="H4" s="9">
@@ -1283,10 +1278,10 @@
       <c r="E5" s="22">
         <v>2.034E-2</v>
       </c>
-      <c r="F5" s="9">
+      <c r="F5" s="22">
         <v>0</v>
       </c>
-      <c r="G5" s="9">
+      <c r="G5" s="22">
         <v>1</v>
       </c>
       <c r="H5" s="9">
@@ -1312,10 +1307,10 @@
       <c r="E6" s="22">
         <v>2.2919999999999999E-2</v>
       </c>
-      <c r="F6" s="9">
+      <c r="F6" s="22">
         <v>3.3000000000000003E-5</v>
       </c>
-      <c r="G6" s="9">
+      <c r="G6" s="22">
         <v>0.99914999999999998</v>
       </c>
       <c r="H6" s="9">
@@ -1341,10 +1336,10 @@
       <c r="E7" s="21">
         <v>1.805E-2</v>
       </c>
-      <c r="F7" s="7">
+      <c r="F7" s="21">
         <v>3.2400000000000001E-4</v>
       </c>
-      <c r="G7" s="7">
+      <c r="G7" s="21">
         <v>0.99653000000000003</v>
       </c>
       <c r="H7" s="7">
@@ -1370,10 +1365,10 @@
       <c r="E8" s="22">
         <v>1.805E-2</v>
       </c>
-      <c r="F8" s="9">
+      <c r="F8" s="22">
         <v>3.2400000000000001E-4</v>
       </c>
-      <c r="G8" s="9">
+      <c r="G8" s="22">
         <v>0.99653000000000003</v>
       </c>
       <c r="H8" s="9">
@@ -1399,10 +1394,10 @@
       <c r="E9" s="22">
         <v>1.8149999999999999E-2</v>
       </c>
-      <c r="F9" s="9">
+      <c r="F9" s="22">
         <v>3.5E-4</v>
       </c>
-      <c r="G9" s="9">
+      <c r="G9" s="22">
         <v>0.99923600000000001</v>
       </c>
       <c r="H9" s="9">
@@ -1428,10 +1423,10 @@
       <c r="E10" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F10" s="9">
+      <c r="F10" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G10" s="9">
+      <c r="G10" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H10" s="9">
@@ -1457,10 +1452,10 @@
       <c r="E11" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F11" s="9">
+      <c r="F11" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G11" s="9">
+      <c r="G11" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H11" s="9">
@@ -1486,10 +1481,10 @@
       <c r="E12" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F12" s="9">
+      <c r="F12" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G12" s="9">
+      <c r="G12" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H12" s="9">
@@ -1515,10 +1510,10 @@
       <c r="E13" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F13" s="9">
+      <c r="F13" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G13" s="9">
+      <c r="G13" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H13" s="9">
@@ -1544,10 +1539,10 @@
       <c r="E14" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F14" s="9">
+      <c r="F14" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G14" s="9">
+      <c r="G14" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H14" s="9">
@@ -1573,10 +1568,10 @@
       <c r="E15" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F15" s="9">
+      <c r="F15" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G15" s="9">
+      <c r="G15" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H15" s="9">
@@ -1602,10 +1597,10 @@
       <c r="E16" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F16" s="9">
+      <c r="F16" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G16" s="9">
+      <c r="G16" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H16" s="9">
@@ -1631,10 +1626,10 @@
       <c r="E17" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F17" s="9">
+      <c r="F17" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G17" s="9">
+      <c r="G17" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H17" s="9">
@@ -1660,10 +1655,10 @@
       <c r="E18" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F18" s="9">
+      <c r="F18" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G18" s="9">
+      <c r="G18" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H18" s="9">
@@ -1689,10 +1684,10 @@
       <c r="E19" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F19" s="9">
+      <c r="F19" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G19" s="9">
+      <c r="G19" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H19" s="9">
@@ -1718,10 +1713,10 @@
       <c r="E20" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F20" s="9">
+      <c r="F20" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G20" s="9">
+      <c r="G20" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H20" s="9">
@@ -1747,10 +1742,10 @@
       <c r="E21" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F21" s="9">
+      <c r="F21" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G21" s="9">
+      <c r="G21" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H21" s="9">
@@ -1776,10 +1771,10 @@
       <c r="E22" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F22" s="9">
+      <c r="F22" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G22" s="9">
+      <c r="G22" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H22" s="9">
@@ -1805,10 +1800,10 @@
       <c r="E23" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F23" s="9">
+      <c r="F23" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G23" s="9">
+      <c r="G23" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H23" s="9">
@@ -1834,10 +1829,10 @@
       <c r="E24" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F24" s="9">
+      <c r="F24" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G24" s="9">
+      <c r="G24" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H24" s="9">
@@ -1863,10 +1858,10 @@
       <c r="E25" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F25" s="9">
+      <c r="F25" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G25" s="9">
+      <c r="G25" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H25" s="9">
@@ -1892,10 +1887,10 @@
       <c r="E26" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F26" s="9">
+      <c r="F26" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G26" s="9">
+      <c r="G26" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H26" s="9">
@@ -1921,10 +1916,10 @@
       <c r="E27" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F27" s="9">
+      <c r="F27" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G27" s="9">
+      <c r="G27" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H27" s="9">
@@ -1950,10 +1945,10 @@
       <c r="E28" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F28" s="9">
+      <c r="F28" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G28" s="9">
+      <c r="G28" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H28" s="9">
@@ -1979,10 +1974,10 @@
       <c r="E29" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F29" s="9">
+      <c r="F29" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G29" s="9">
+      <c r="G29" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H29" s="9">
@@ -2008,10 +2003,10 @@
       <c r="E30" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F30" s="9">
+      <c r="F30" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G30" s="9">
+      <c r="G30" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H30" s="9">
@@ -2037,10 +2032,10 @@
       <c r="E31" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F31" s="9">
+      <c r="F31" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G31" s="9">
+      <c r="G31" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H31" s="9">
@@ -2066,10 +2061,10 @@
       <c r="E32" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F32" s="9">
+      <c r="F32" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G32" s="9">
+      <c r="G32" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H32" s="9">
@@ -2095,10 +2090,10 @@
       <c r="E33" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F33" s="9">
+      <c r="F33" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G33" s="9">
+      <c r="G33" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H33" s="9">
@@ -2124,10 +2119,10 @@
       <c r="E34" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F34" s="9">
+      <c r="F34" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G34" s="9">
+      <c r="G34" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H34" s="9">
@@ -2153,10 +2148,10 @@
       <c r="E35" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F35" s="9">
+      <c r="F35" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G35" s="9">
+      <c r="G35" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H35" s="9">
@@ -2182,10 +2177,10 @@
       <c r="E36" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F36" s="9">
+      <c r="F36" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G36" s="9">
+      <c r="G36" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H36" s="9">
@@ -2211,10 +2206,10 @@
       <c r="E37" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F37" s="9">
+      <c r="F37" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G37" s="9">
+      <c r="G37" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H37" s="9">
@@ -2240,10 +2235,10 @@
       <c r="E38" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F38" s="9">
+      <c r="F38" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G38" s="9">
+      <c r="G38" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H38" s="9">
@@ -2269,10 +2264,10 @@
       <c r="E39" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F39" s="9">
+      <c r="F39" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G39" s="9">
+      <c r="G39" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H39" s="9">
@@ -2298,10 +2293,10 @@
       <c r="E40" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F40" s="9">
+      <c r="F40" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G40" s="9">
+      <c r="G40" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H40" s="9">
@@ -2327,10 +2322,10 @@
       <c r="E41" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F41" s="9">
+      <c r="F41" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G41" s="9">
+      <c r="G41" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H41" s="9">
@@ -2356,10 +2351,10 @@
       <c r="E42" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F42" s="9">
+      <c r="F42" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G42" s="9">
+      <c r="G42" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H42" s="9">
@@ -2385,10 +2380,10 @@
       <c r="E43" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F43" s="9">
+      <c r="F43" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G43" s="9">
+      <c r="G43" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H43" s="9">
@@ -2414,10 +2409,10 @@
       <c r="E44" s="22">
         <v>1.7299999999999999E-2</v>
       </c>
-      <c r="F44" s="9">
+      <c r="F44" s="22">
         <v>3.6000000000000002E-4</v>
       </c>
-      <c r="G44" s="9">
+      <c r="G44" s="22">
         <v>0.99748400000000004</v>
       </c>
       <c r="H44" s="9">
@@ -2443,10 +2438,10 @@
       <c r="E45" s="22">
         <v>2.4819999999999998E-2</v>
       </c>
-      <c r="F45" s="9">
+      <c r="F45" s="22">
         <v>1.114E-3</v>
       </c>
-      <c r="G45" s="9">
+      <c r="G45" s="22">
         <v>0.99852799999999997</v>
       </c>
       <c r="H45" s="9">
@@ -2472,10 +2467,10 @@
       <c r="E46" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F46" s="9">
+      <c r="F46" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G46" s="9">
+      <c r="G46" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H46" s="9">
@@ -2501,10 +2496,10 @@
       <c r="E47" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F47" s="9">
+      <c r="F47" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G47" s="9">
+      <c r="G47" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H47" s="9">
@@ -2530,10 +2525,10 @@
       <c r="E48" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F48" s="9">
+      <c r="F48" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G48" s="9">
+      <c r="G48" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H48" s="9">
@@ -2559,10 +2554,10 @@
       <c r="E49" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F49" s="9">
+      <c r="F49" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G49" s="9">
+      <c r="G49" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H49" s="9">
@@ -2588,10 +2583,10 @@
       <c r="E50" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F50" s="9">
+      <c r="F50" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G50" s="9">
+      <c r="G50" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H50" s="9">
@@ -2617,10 +2612,10 @@
       <c r="E51" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F51" s="9">
+      <c r="F51" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G51" s="9">
+      <c r="G51" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H51" s="9">
@@ -2646,10 +2641,10 @@
       <c r="E52" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F52" s="9">
+      <c r="F52" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G52" s="9">
+      <c r="G52" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H52" s="9">
@@ -2675,10 +2670,10 @@
       <c r="E53" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F53" s="9">
+      <c r="F53" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G53" s="9">
+      <c r="G53" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H53" s="9">
@@ -2704,10 +2699,10 @@
       <c r="E54" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F54" s="9">
+      <c r="F54" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G54" s="9">
+      <c r="G54" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H54" s="9">
@@ -2733,10 +2728,10 @@
       <c r="E55" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F55" s="9">
+      <c r="F55" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G55" s="9">
+      <c r="G55" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H55" s="9">
@@ -2762,10 +2757,10 @@
       <c r="E56" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F56" s="9">
+      <c r="F56" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G56" s="9">
+      <c r="G56" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H56" s="9">
@@ -2791,10 +2786,10 @@
       <c r="E57" s="22">
         <v>2.299E-2</v>
       </c>
-      <c r="F57" s="9">
+      <c r="F57" s="22">
         <v>1.1640000000000001E-3</v>
       </c>
-      <c r="G57" s="9">
+      <c r="G57" s="22">
         <v>0.99883699999999997</v>
       </c>
       <c r="H57" s="9">
@@ -2820,10 +2815,10 @@
       <c r="E58" s="22">
         <v>2.5569999999999999E-2</v>
       </c>
-      <c r="F58" s="9">
+      <c r="F58" s="22">
         <v>1.1969999999999999E-3</v>
       </c>
-      <c r="G58" s="9">
+      <c r="G58" s="22">
         <v>0.99798799999999999</v>
       </c>
       <c r="H58" s="9">
@@ -2849,10 +2844,10 @@
       <c r="E59" s="22">
         <v>2.5569999999999999E-2</v>
       </c>
-      <c r="F59" s="9">
+      <c r="F59" s="22">
         <v>1.1969999999999999E-3</v>
       </c>
-      <c r="G59" s="9">
+      <c r="G59" s="22">
         <v>0.99798799999999999</v>
       </c>
       <c r="H59" s="9">
@@ -2878,10 +2873,10 @@
       <c r="E60" s="22">
         <v>2.5569999999999999E-2</v>
       </c>
-      <c r="F60" s="9">
+      <c r="F60" s="22">
         <v>1.1969999999999999E-3</v>
       </c>
-      <c r="G60" s="9">
+      <c r="G60" s="22">
         <v>0.99798799999999999</v>
       </c>
       <c r="H60" s="9">
@@ -2907,10 +2902,10 @@
       <c r="E61" s="22">
         <v>2.5510000000000001E-2</v>
       </c>
-      <c r="F61" s="9">
+      <c r="F61" s="22">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="G61" s="9">
+      <c r="G61" s="22">
         <v>0.998417</v>
       </c>
       <c r="H61" s="9">
@@ -2936,10 +2931,10 @@
       <c r="E62" s="22">
         <v>2.5510000000000001E-2</v>
       </c>
-      <c r="F62" s="9">
+      <c r="F62" s="22">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="G62" s="9">
+      <c r="G62" s="22">
         <v>0.998417</v>
       </c>
       <c r="H62" s="9">
@@ -2965,10 +2960,10 @@
       <c r="E63" s="22">
         <v>2.5510000000000001E-2</v>
       </c>
-      <c r="F63" s="9">
+      <c r="F63" s="22">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="G63" s="9">
+      <c r="G63" s="22">
         <v>0.998417</v>
       </c>
       <c r="H63" s="9">
@@ -2994,10 +2989,10 @@
       <c r="E64" s="22">
         <v>2.5510000000000001E-2</v>
       </c>
-      <c r="F64" s="9">
+      <c r="F64" s="22">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="G64" s="9">
+      <c r="G64" s="22">
         <v>0.998417</v>
       </c>
       <c r="H64" s="9">
@@ -3023,10 +3018,10 @@
       <c r="E65" s="22">
         <v>2.5510000000000001E-2</v>
       </c>
-      <c r="F65" s="9">
+      <c r="F65" s="22">
         <v>1.4300000000000001E-3</v>
       </c>
-      <c r="G65" s="9">
+      <c r="G65" s="22">
         <v>0.998417</v>
       </c>
       <c r="H65" s="9">
@@ -3052,10 +3047,10 @@
       <c r="E66" s="22">
         <v>2.81E-2</v>
       </c>
-      <c r="F66" s="9">
+      <c r="F66" s="22">
         <v>1.4630000000000001E-3</v>
       </c>
-      <c r="G66" s="9">
+      <c r="G66" s="22">
         <v>0.99756699999999998</v>
       </c>
       <c r="H66" s="9">
@@ -3081,10 +3076,10 @@
       <c r="E67" s="22">
         <v>2.81E-2</v>
       </c>
-      <c r="F67" s="9">
+      <c r="F67" s="22">
         <v>1.4630000000000001E-3</v>
       </c>
-      <c r="G67" s="9">
+      <c r="G67" s="22">
         <v>0.99756699999999998</v>
       </c>
       <c r="H67" s="9">
@@ -3110,10 +3105,10 @@
       <c r="E68" s="22">
         <v>2.81E-2</v>
       </c>
-      <c r="F68" s="9">
+      <c r="F68" s="22">
         <v>1.4630000000000001E-3</v>
       </c>
-      <c r="G68" s="9">
+      <c r="G68" s="22">
         <v>0.99756699999999998</v>
       </c>
       <c r="H68" s="9">
@@ -3139,10 +3134,10 @@
       <c r="E69" s="22">
         <v>2.81E-2</v>
       </c>
-      <c r="F69" s="9">
+      <c r="F69" s="22">
         <v>1.4630000000000001E-3</v>
       </c>
-      <c r="G69" s="9">
+      <c r="G69" s="22">
         <v>0.99756699999999998</v>
       </c>
       <c r="H69" s="9">
@@ -3168,10 +3163,10 @@
       <c r="E70" s="22">
         <v>2.445E-2</v>
       </c>
-      <c r="F70" s="9">
+      <c r="F70" s="22">
         <v>1.6429999999999999E-3</v>
       </c>
-      <c r="G70" s="9">
+      <c r="G70" s="22">
         <v>0.99738300000000002</v>
       </c>
       <c r="H70" s="9">
@@ -3197,10 +3192,10 @@
       <c r="E71" s="22">
         <v>2.581E-2</v>
       </c>
-      <c r="F71" s="9">
+      <c r="F71" s="22">
         <v>1.66E-3</v>
       </c>
-      <c r="G71" s="9">
+      <c r="G71" s="22">
         <v>0.99788699999999997</v>
       </c>
       <c r="H71" s="9">
@@ -3226,10 +3221,10 @@
       <c r="E72" s="22">
         <v>2.4729999999999999E-2</v>
       </c>
-      <c r="F72" s="9">
+      <c r="F72" s="22">
         <v>1.6739999999999999E-3</v>
       </c>
-      <c r="G72" s="9">
+      <c r="G72" s="22">
         <v>0.99724199999999996</v>
       </c>
       <c r="H72" s="9">
@@ -3255,10 +3250,10 @@
       <c r="E73" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F73" s="9">
+      <c r="F73" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G73" s="9">
+      <c r="G73" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H73" s="9">
@@ -3284,10 +3279,10 @@
       <c r="E74" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F74" s="9">
+      <c r="F74" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G74" s="9">
+      <c r="G74" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H74" s="9">
@@ -3313,10 +3308,10 @@
       <c r="E75" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F75" s="9">
+      <c r="F75" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G75" s="9">
+      <c r="G75" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H75" s="9">
@@ -3342,10 +3337,10 @@
       <c r="E76" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F76" s="9">
+      <c r="F76" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G76" s="9">
+      <c r="G76" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H76" s="9">
@@ -3371,10 +3366,10 @@
       <c r="E77" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F77" s="9">
+      <c r="F77" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G77" s="9">
+      <c r="G77" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H77" s="9">
@@ -3400,10 +3395,10 @@
       <c r="E78" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F78" s="9">
+      <c r="F78" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G78" s="9">
+      <c r="G78" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H78" s="9">
@@ -3429,10 +3424,10 @@
       <c r="E79" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F79" s="9">
+      <c r="F79" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G79" s="9">
+      <c r="G79" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H79" s="9">
@@ -3458,10 +3453,10 @@
       <c r="E80" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F80" s="9">
+      <c r="F80" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G80" s="9">
+      <c r="G80" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H80" s="9">
@@ -3487,10 +3482,10 @@
       <c r="E81" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F81" s="9">
+      <c r="F81" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G81" s="9">
+      <c r="G81" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H81" s="9">
@@ -3516,10 +3511,10 @@
       <c r="E82" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F82" s="9">
+      <c r="F82" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G82" s="9">
+      <c r="G82" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H82" s="9">
@@ -3545,10 +3540,10 @@
       <c r="E83" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F83" s="9">
+      <c r="F83" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G83" s="9">
+      <c r="G83" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H83" s="9">
@@ -3574,10 +3569,10 @@
       <c r="E84" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F84" s="9">
+      <c r="F84" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G84" s="9">
+      <c r="G84" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H84" s="9">
@@ -3603,10 +3598,10 @@
       <c r="E85" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F85" s="9">
+      <c r="F85" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G85" s="9">
+      <c r="G85" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H85" s="9">
@@ -3632,10 +3627,10 @@
       <c r="E86" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F86" s="9">
+      <c r="F86" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G86" s="9">
+      <c r="G86" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H86" s="9">
@@ -3661,10 +3656,10 @@
       <c r="E87" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F87" s="9">
+      <c r="F87" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G87" s="9">
+      <c r="G87" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H87" s="9">
@@ -3690,10 +3685,10 @@
       <c r="E88" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F88" s="9">
+      <c r="F88" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G88" s="9">
+      <c r="G88" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H88" s="9">
@@ -3719,10 +3714,10 @@
       <c r="E89" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F89" s="9">
+      <c r="F89" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G89" s="9">
+      <c r="G89" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H89" s="9">
@@ -3748,10 +3743,10 @@
       <c r="E90" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F90" s="9">
+      <c r="F90" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G90" s="9">
+      <c r="G90" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H90" s="9">
@@ -3777,10 +3772,10 @@
       <c r="E91" s="22">
         <v>2.3980000000000001E-2</v>
       </c>
-      <c r="F91" s="9">
+      <c r="F91" s="22">
         <v>1.7099999999999999E-3</v>
       </c>
-      <c r="G91" s="9">
+      <c r="G91" s="22">
         <v>0.99819599999999997</v>
       </c>
       <c r="H91" s="9">
@@ -3806,10 +3801,10 @@
       <c r="E92" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F92" s="9">
+      <c r="F92" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G92" s="9">
+      <c r="G92" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H92" s="9">
@@ -3835,10 +3830,10 @@
       <c r="E93" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F93" s="9">
+      <c r="F93" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G93" s="9">
+      <c r="G93" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H93" s="9">
@@ -3864,10 +3859,10 @@
       <c r="E94" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F94" s="9">
+      <c r="F94" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G94" s="9">
+      <c r="G94" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H94" s="9">
@@ -3893,10 +3888,10 @@
       <c r="E95" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F95" s="9">
+      <c r="F95" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G95" s="9">
+      <c r="G95" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H95" s="9">
@@ -3922,10 +3917,10 @@
       <c r="E96" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F96" s="9">
+      <c r="F96" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G96" s="9">
+      <c r="G96" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H96" s="9">
@@ -3951,10 +3946,10 @@
       <c r="E97" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F97" s="9">
+      <c r="F97" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G97" s="9">
+      <c r="G97" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H97" s="9">
@@ -3980,10 +3975,10 @@
       <c r="E98" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F98" s="9">
+      <c r="F98" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G98" s="9">
+      <c r="G98" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H98" s="9">
@@ -4009,10 +4004,10 @@
       <c r="E99" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F99" s="9">
+      <c r="F99" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G99" s="9">
+      <c r="G99" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H99" s="9">
@@ -4038,10 +4033,10 @@
       <c r="E100" s="22">
         <v>2.7310000000000001E-2</v>
       </c>
-      <c r="F100" s="9">
+      <c r="F100" s="22">
         <v>1.8910000000000001E-3</v>
       </c>
-      <c r="G100" s="9">
+      <c r="G100" s="22">
         <v>0.99812000000000001</v>
       </c>
       <c r="H100" s="9">
@@ -4067,10 +4062,10 @@
       <c r="E101" s="22">
         <v>2.8500000000000001E-2</v>
       </c>
-      <c r="F101" s="9">
+      <c r="F101" s="22">
         <v>2.1589999999999999E-3</v>
       </c>
-      <c r="G101" s="9">
+      <c r="G101" s="22">
         <v>0.997919</v>
       </c>
       <c r="H101" s="9">

--- a/maps/LA/LA20C_candidates.xlsx
+++ b/maps/LA/LA20C_candidates.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/LA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36B5A00D-E118-8144-9641-28560B34178E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7C9AF-8AB8-BB41-A15E-8CE510D0AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11420" yWindow="3660" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
+    <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
   <sheets>
     <sheet name="SUMMARY" sheetId="2" r:id="rId1"/>
@@ -43,7 +43,7 @@
 <file path=xl/connections.xml><?xml version="1.0" encoding="utf-8"?>
 <connections xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16">
   <connection id="1" xr16:uid="{0A068D4B-DECE-2C47-9741-13AD2A4BEF96}" name="NC20C_candidates1" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/LA/LA20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -58,7 +58,7 @@
     </textPr>
   </connection>
   <connection id="2" xr16:uid="{2A8C1F5B-279D-584B-8B5C-4F3DB75AD51E}" name="WA20C_energies" type="6" refreshedVersion="8" background="1" saveData="1">
-    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/LA/LA20C_candidates.csv" comma="1">
+    <textPr sourceFile="/Users/alecramsay/Documents/dev/baseline/maps/NC/NC20C_candidates.csv" comma="1">
       <textFields count="9">
         <textField/>
         <textField type="text"/>
@@ -76,7 +76,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="122" uniqueCount="117">
   <si>
     <t>#</t>
   </si>
@@ -132,9 +132,6 @@
     <t>LA20C_I000K01N06</t>
   </si>
   <si>
-    <t>0.000000</t>
-  </si>
-  <si>
     <t>LA20C_I038K01N06</t>
   </si>
   <si>
@@ -147,30 +144,18 @@
     <t>LA20C_I063K01N06</t>
   </si>
   <si>
-    <t>0.001704</t>
-  </si>
-  <si>
     <t>LA20C_I008K01N06</t>
   </si>
   <si>
-    <t>0.006975</t>
-  </si>
-  <si>
     <t>LA20C_I035K01N06</t>
   </si>
   <si>
     <t>LA20C_I072K01N06</t>
   </si>
   <si>
-    <t>0.001531</t>
-  </si>
-  <si>
     <t>LA20C_I001K01N06</t>
   </si>
   <si>
-    <t>0.005063</t>
-  </si>
-  <si>
     <t>LA20C_I011K01N06</t>
   </si>
   <si>
@@ -276,15 +261,9 @@
     <t>LA20C_I018K01N06</t>
   </si>
   <si>
-    <t>0.002958</t>
-  </si>
-  <si>
     <t>LA20C_I002K01N06</t>
   </si>
   <si>
-    <t>0.002340</t>
-  </si>
-  <si>
     <t>LA20C_I006K01N06</t>
   </si>
   <si>
@@ -321,9 +300,6 @@
     <t>LA20C_I010K01N06</t>
   </si>
   <si>
-    <t>0.004043</t>
-  </si>
-  <si>
     <t>LA20C_I036K01N06</t>
   </si>
   <si>
@@ -333,9 +309,6 @@
     <t>LA20C_I007K01N06</t>
   </si>
   <si>
-    <t>0.003183</t>
-  </si>
-  <si>
     <t>LA20C_I028K01N06</t>
   </si>
   <si>
@@ -351,9 +324,6 @@
     <t>LA20C_I005K01N06</t>
   </si>
   <si>
-    <t>0.004887</t>
-  </si>
-  <si>
     <t>LA20C_I044K01N06</t>
   </si>
   <si>
@@ -366,27 +336,15 @@
     <t>LA20C_I030K01N06</t>
   </si>
   <si>
-    <t>0.005263</t>
-  </si>
-  <si>
     <t>LA20C_I052K01N06</t>
   </si>
   <si>
-    <t>0.004252</t>
-  </si>
-  <si>
     <t>LA20C_I084K01N06</t>
   </si>
   <si>
-    <t>0.005546</t>
-  </si>
-  <si>
     <t>LA20C_I003K01N06</t>
   </si>
   <si>
-    <t>0.003631</t>
-  </si>
-  <si>
     <t>LA20C_I016K01N06</t>
   </si>
   <si>
@@ -444,9 +402,6 @@
     <t>LA20C_I043K01N06</t>
   </si>
   <si>
-    <t>0.003786</t>
-  </si>
-  <si>
     <t>LA20C_I049K01N06</t>
   </si>
   <si>
@@ -472,9 +427,6 @@
   </si>
   <si>
     <t>LA20C_I004K01N06</t>
-  </si>
-  <si>
-    <t>0.004188</t>
   </si>
 </sst>
 </file>
@@ -606,11 +558,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -998,7 +950,7 @@
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
-        <v>0</v>
+        <v>6.9750000000000003E-3</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -1021,9 +973,9 @@
         <f>AVERAGE(DATA!H$2:H$101)</f>
         <v>1.7753619999999984E-2</v>
       </c>
-      <c r="F6" s="8" t="e">
+      <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <v>3.9533200000000006E-3</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -1046,9 +998,9 @@
         <f>MEDIAN(DATA!H$2:H$101)</f>
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="F7" s="8" t="e">
+      <c r="F7" s="8">
         <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>#NUM!</v>
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1071,9 +1023,9 @@
         <f>STDEV(DATA!H$2:H$101)</f>
         <v>6.0993328063342119E-3</v>
       </c>
-      <c r="F8" s="13" t="e">
+      <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>#DIV/0!</v>
+        <v>1.3488724350584859E-3</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1130,20 +1082,19 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="G15" sqref="G15"/>
+      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.6640625" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="8.6640625" style="9" bestFit="1" customWidth="1"/>
+    <col min="8" max="9" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.2">
@@ -1171,37 +1122,37 @@
       <c r="H1" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="I1" s="3" t="s">
+      <c r="I1" s="4" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="A2" s="5">
+        <v>1</v>
+      </c>
+      <c r="B2" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="C2" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="23">
+      <c r="C2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
         <v>2139381.0131299999</v>
       </c>
-      <c r="E2" s="22">
+      <c r="E2" s="21">
         <v>2.034E-2</v>
       </c>
-      <c r="F2" s="22">
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="22">
-        <v>1</v>
-      </c>
-      <c r="H2" s="9">
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="1" t="s">
-        <v>18</v>
+      <c r="I2" s="7">
+        <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
@@ -1209,7 +1160,7 @@
         <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
@@ -1229,8 +1180,8 @@
       <c r="H3" s="9">
         <v>0</v>
       </c>
-      <c r="I3" s="1" t="s">
-        <v>18</v>
+      <c r="I3" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
@@ -1238,7 +1189,7 @@
         <v>65</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
@@ -1258,8 +1209,8 @@
       <c r="H4" s="9">
         <v>0</v>
       </c>
-      <c r="I4" s="1" t="s">
-        <v>18</v>
+      <c r="I4" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
@@ -1267,7 +1218,7 @@
         <v>86</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
@@ -1287,8 +1238,8 @@
       <c r="H5" s="9">
         <v>0</v>
       </c>
-      <c r="I5" s="1" t="s">
-        <v>18</v>
+      <c r="I5" s="9">
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
@@ -1296,7 +1247,7 @@
         <v>64</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
@@ -1316,37 +1267,37 @@
       <c r="H6" s="9">
         <v>8.5439999999999995E-3</v>
       </c>
-      <c r="I6" s="1" t="s">
-        <v>23</v>
+      <c r="I6" s="9">
+        <v>1.704E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
+      <c r="A7">
         <v>9</v>
       </c>
-      <c r="B7" s="6" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25">
+      <c r="B7" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="C7" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="23">
         <v>2140075.0490649999</v>
       </c>
-      <c r="E7" s="21">
+      <c r="E7" s="22">
         <v>1.805E-2</v>
       </c>
-      <c r="F7" s="21">
+      <c r="F7" s="22">
         <v>3.2400000000000001E-4</v>
       </c>
-      <c r="G7" s="21">
+      <c r="G7" s="22">
         <v>0.99653000000000003</v>
       </c>
-      <c r="H7" s="7">
+      <c r="H7" s="9">
         <v>3.2823999999999999E-2</v>
       </c>
-      <c r="I7" s="6" t="s">
-        <v>25</v>
+      <c r="I7" s="9">
+        <v>6.9750000000000003E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
@@ -1354,7 +1305,7 @@
         <v>36</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
@@ -1374,8 +1325,8 @@
       <c r="H8" s="9">
         <v>3.2823999999999999E-2</v>
       </c>
-      <c r="I8" s="1" t="s">
-        <v>25</v>
+      <c r="I8" s="9">
+        <v>6.9750000000000003E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
@@ -1383,7 +1334,7 @@
         <v>73</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
@@ -1403,8 +1354,8 @@
       <c r="H9" s="9">
         <v>8.1799999999999998E-3</v>
       </c>
-      <c r="I9" s="1" t="s">
-        <v>28</v>
+      <c r="I9" s="9">
+        <v>1.531E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
@@ -1412,7 +1363,7 @@
         <v>2</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
@@ -1432,8 +1383,8 @@
       <c r="H10" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I10" s="1" t="s">
-        <v>30</v>
+      <c r="I10" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
@@ -1441,7 +1392,7 @@
         <v>12</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -1461,8 +1412,8 @@
       <c r="H11" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I11" s="1" t="s">
-        <v>30</v>
+      <c r="I11" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
@@ -1470,7 +1421,7 @@
         <v>13</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
@@ -1490,8 +1441,8 @@
       <c r="H12" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I12" s="1" t="s">
-        <v>30</v>
+      <c r="I12" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
@@ -1499,7 +1450,7 @@
         <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
@@ -1519,8 +1470,8 @@
       <c r="H13" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I13" s="1" t="s">
-        <v>30</v>
+      <c r="I13" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
@@ -1528,7 +1479,7 @@
         <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
@@ -1548,8 +1499,8 @@
       <c r="H14" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I14" s="1" t="s">
-        <v>30</v>
+      <c r="I14" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
@@ -1557,7 +1508,7 @@
         <v>20</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
@@ -1577,8 +1528,8 @@
       <c r="H15" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I15" s="1" t="s">
-        <v>30</v>
+      <c r="I15" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
@@ -1586,7 +1537,7 @@
         <v>21</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>36</v>
+        <v>31</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
@@ -1606,8 +1557,8 @@
       <c r="H16" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I16" s="1" t="s">
-        <v>30</v>
+      <c r="I16" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
@@ -1615,7 +1566,7 @@
         <v>22</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
@@ -1635,8 +1586,8 @@
       <c r="H17" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I17" s="1" t="s">
-        <v>30</v>
+      <c r="I17" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
@@ -1644,7 +1595,7 @@
         <v>23</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
@@ -1664,8 +1615,8 @@
       <c r="H18" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I18" s="1" t="s">
-        <v>30</v>
+      <c r="I18" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
@@ -1673,7 +1624,7 @@
         <v>25</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
@@ -1693,8 +1644,8 @@
       <c r="H19" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I19" s="1" t="s">
-        <v>30</v>
+      <c r="I19" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
@@ -1702,7 +1653,7 @@
         <v>27</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
@@ -1722,8 +1673,8 @@
       <c r="H20" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I20" s="1" t="s">
-        <v>30</v>
+      <c r="I20" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
@@ -1731,7 +1682,7 @@
         <v>32</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
@@ -1751,8 +1702,8 @@
       <c r="H21" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I21" s="1" t="s">
-        <v>30</v>
+      <c r="I21" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
@@ -1760,7 +1711,7 @@
         <v>34</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
@@ -1780,8 +1731,8 @@
       <c r="H22" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I22" s="1" t="s">
-        <v>30</v>
+      <c r="I22" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
@@ -1789,7 +1740,7 @@
         <v>35</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
@@ -1809,8 +1760,8 @@
       <c r="H23" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I23" s="1" t="s">
-        <v>30</v>
+      <c r="I23" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
@@ -1818,7 +1769,7 @@
         <v>38</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
@@ -1838,8 +1789,8 @@
       <c r="H24" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I24" s="1" t="s">
-        <v>30</v>
+      <c r="I24" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
@@ -1847,7 +1798,7 @@
         <v>40</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
@@ -1867,8 +1818,8 @@
       <c r="H25" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I25" s="1" t="s">
-        <v>30</v>
+      <c r="I25" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
@@ -1876,7 +1827,7 @@
         <v>42</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
@@ -1896,8 +1847,8 @@
       <c r="H26" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I26" s="1" t="s">
-        <v>30</v>
+      <c r="I26" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
@@ -1905,7 +1856,7 @@
         <v>47</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
@@ -1925,8 +1876,8 @@
       <c r="H27" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I27" s="1" t="s">
-        <v>30</v>
+      <c r="I27" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
@@ -1934,7 +1885,7 @@
         <v>48</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
@@ -1954,8 +1905,8 @@
       <c r="H28" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I28" s="1" t="s">
-        <v>30</v>
+      <c r="I28" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
@@ -1963,7 +1914,7 @@
         <v>54</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
@@ -1983,8 +1934,8 @@
       <c r="H29" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I29" s="1" t="s">
-        <v>30</v>
+      <c r="I29" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
@@ -1992,7 +1943,7 @@
         <v>57</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
@@ -2012,8 +1963,8 @@
       <c r="H30" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I30" s="1" t="s">
-        <v>30</v>
+      <c r="I30" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
@@ -2021,7 +1972,7 @@
         <v>61</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
@@ -2041,8 +1992,8 @@
       <c r="H31" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I31" s="1" t="s">
-        <v>30</v>
+      <c r="I31" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
@@ -2050,7 +2001,7 @@
         <v>67</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
@@ -2070,8 +2021,8 @@
       <c r="H32" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I32" s="1" t="s">
-        <v>30</v>
+      <c r="I32" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
@@ -2079,7 +2030,7 @@
         <v>69</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
@@ -2099,8 +2050,8 @@
       <c r="H33" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I33" s="1" t="s">
-        <v>30</v>
+      <c r="I33" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
@@ -2108,7 +2059,7 @@
         <v>72</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
@@ -2128,8 +2079,8 @@
       <c r="H34" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I34" s="1" t="s">
-        <v>30</v>
+      <c r="I34" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
@@ -2137,7 +2088,7 @@
         <v>77</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
@@ -2157,8 +2108,8 @@
       <c r="H35" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I35" s="1" t="s">
-        <v>30</v>
+      <c r="I35" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
@@ -2166,7 +2117,7 @@
         <v>81</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>56</v>
+        <v>51</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
@@ -2186,8 +2137,8 @@
       <c r="H36" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I36" s="1" t="s">
-        <v>30</v>
+      <c r="I36" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
@@ -2195,7 +2146,7 @@
         <v>82</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>57</v>
+        <v>52</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
@@ -2215,8 +2166,8 @@
       <c r="H37" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I37" s="1" t="s">
-        <v>30</v>
+      <c r="I37" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
@@ -2224,7 +2175,7 @@
         <v>87</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>58</v>
+        <v>53</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
@@ -2244,8 +2195,8 @@
       <c r="H38" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I38" s="1" t="s">
-        <v>30</v>
+      <c r="I38" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
@@ -2253,7 +2204,7 @@
         <v>88</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
@@ -2273,8 +2224,8 @@
       <c r="H39" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I39" s="1" t="s">
-        <v>30</v>
+      <c r="I39" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
@@ -2282,7 +2233,7 @@
         <v>91</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
@@ -2302,8 +2253,8 @@
       <c r="H40" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I40" s="1" t="s">
-        <v>30</v>
+      <c r="I40" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
@@ -2311,7 +2262,7 @@
         <v>93</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
@@ -2331,8 +2282,8 @@
       <c r="H41" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I41" s="1" t="s">
-        <v>30</v>
+      <c r="I41" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
@@ -2340,7 +2291,7 @@
         <v>96</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>62</v>
+        <v>57</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
@@ -2360,8 +2311,8 @@
       <c r="H42" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I42" s="1" t="s">
-        <v>30</v>
+      <c r="I42" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
@@ -2369,7 +2320,7 @@
         <v>97</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>63</v>
+        <v>58</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
@@ -2389,8 +2340,8 @@
       <c r="H43" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I43" s="1" t="s">
-        <v>30</v>
+      <c r="I43" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
@@ -2398,7 +2349,7 @@
         <v>100</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
@@ -2418,8 +2369,8 @@
       <c r="H44" s="9">
         <v>2.2471000000000001E-2</v>
       </c>
-      <c r="I44" s="1" t="s">
-        <v>30</v>
+      <c r="I44" s="9">
+        <v>5.0629999999999998E-3</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
@@ -2427,7 +2378,7 @@
         <v>19</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
@@ -2447,8 +2398,8 @@
       <c r="H45" s="9">
         <v>1.3721000000000001E-2</v>
       </c>
-      <c r="I45" s="1" t="s">
-        <v>66</v>
+      <c r="I45" s="9">
+        <v>2.9580000000000001E-3</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
@@ -2456,7 +2407,7 @@
         <v>3</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>67</v>
+        <v>61</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
@@ -2476,8 +2427,8 @@
       <c r="H46" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I46" s="1" t="s">
-        <v>68</v>
+      <c r="I46" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
@@ -2485,7 +2436,7 @@
         <v>7</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>69</v>
+        <v>62</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
@@ -2505,8 +2456,8 @@
       <c r="H47" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I47" s="1" t="s">
-        <v>68</v>
+      <c r="I47" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
@@ -2514,7 +2465,7 @@
         <v>10</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
@@ -2534,8 +2485,8 @@
       <c r="H48" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I48" s="1" t="s">
-        <v>68</v>
+      <c r="I48" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
@@ -2543,7 +2494,7 @@
         <v>16</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>71</v>
+        <v>64</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
@@ -2563,8 +2514,8 @@
       <c r="H49" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I49" s="1" t="s">
-        <v>68</v>
+      <c r="I49" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
@@ -2572,7 +2523,7 @@
         <v>26</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
@@ -2592,8 +2543,8 @@
       <c r="H50" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I50" s="1" t="s">
-        <v>68</v>
+      <c r="I50" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
@@ -2601,7 +2552,7 @@
         <v>41</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>73</v>
+        <v>66</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
@@ -2621,8 +2572,8 @@
       <c r="H51" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I51" s="1" t="s">
-        <v>68</v>
+      <c r="I51" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
@@ -2630,7 +2581,7 @@
         <v>49</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>74</v>
+        <v>67</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
@@ -2650,8 +2601,8 @@
       <c r="H52" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I52" s="1" t="s">
-        <v>68</v>
+      <c r="I52" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
@@ -2659,7 +2610,7 @@
         <v>62</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>75</v>
+        <v>68</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
@@ -2679,8 +2630,8 @@
       <c r="H53" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I53" s="1" t="s">
-        <v>68</v>
+      <c r="I53" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2688,7 +2639,7 @@
         <v>74</v>
       </c>
       <c r="B54" s="1" t="s">
-        <v>76</v>
+        <v>69</v>
       </c>
       <c r="C54" t="b">
         <v>1</v>
@@ -2708,8 +2659,8 @@
       <c r="H54" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I54" s="1" t="s">
-        <v>68</v>
+      <c r="I54" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
@@ -2717,7 +2668,7 @@
         <v>78</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>77</v>
+        <v>70</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
@@ -2737,8 +2688,8 @@
       <c r="H55" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I55" s="1" t="s">
-        <v>68</v>
+      <c r="I55" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
@@ -2746,7 +2697,7 @@
         <v>84</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>78</v>
+        <v>71</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
@@ -2766,8 +2717,8 @@
       <c r="H56" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I56" s="1" t="s">
-        <v>68</v>
+      <c r="I56" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
@@ -2775,7 +2726,7 @@
         <v>89</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
@@ -2795,8 +2746,8 @@
       <c r="H57" s="9">
         <v>1.0474000000000001E-2</v>
       </c>
-      <c r="I57" s="1" t="s">
-        <v>68</v>
+      <c r="I57" s="9">
+        <v>2.3400000000000001E-3</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
@@ -2804,7 +2755,7 @@
         <v>11</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>80</v>
+        <v>73</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
@@ -2824,8 +2775,8 @@
       <c r="H58" s="9">
         <v>1.9018E-2</v>
       </c>
-      <c r="I58" s="1" t="s">
-        <v>81</v>
+      <c r="I58" s="9">
+        <v>4.0429999999999997E-3</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
@@ -2833,7 +2784,7 @@
         <v>37</v>
       </c>
       <c r="B59" s="1" t="s">
-        <v>82</v>
+        <v>74</v>
       </c>
       <c r="C59" t="b">
         <v>1</v>
@@ -2853,8 +2804,8 @@
       <c r="H59" s="9">
         <v>1.9018E-2</v>
       </c>
-      <c r="I59" s="1" t="s">
-        <v>81</v>
+      <c r="I59" s="9">
+        <v>4.0429999999999997E-3</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
@@ -2862,7 +2813,7 @@
         <v>55</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>83</v>
+        <v>75</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
@@ -2882,8 +2833,8 @@
       <c r="H60" s="9">
         <v>1.9018E-2</v>
       </c>
-      <c r="I60" s="1" t="s">
-        <v>81</v>
+      <c r="I60" s="9">
+        <v>4.0429999999999997E-3</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
@@ -2891,7 +2842,7 @@
         <v>8</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>84</v>
+        <v>76</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
@@ -2911,8 +2862,8 @@
       <c r="H61" s="9">
         <v>1.4355E-2</v>
       </c>
-      <c r="I61" s="1" t="s">
-        <v>85</v>
+      <c r="I61" s="9">
+        <v>3.1830000000000001E-3</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
@@ -2920,7 +2871,7 @@
         <v>29</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>86</v>
+        <v>77</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
@@ -2940,8 +2891,8 @@
       <c r="H62" s="9">
         <v>1.4355E-2</v>
       </c>
-      <c r="I62" s="1" t="s">
-        <v>85</v>
+      <c r="I62" s="9">
+        <v>3.1830000000000001E-3</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
@@ -2949,7 +2900,7 @@
         <v>33</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>87</v>
+        <v>78</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
@@ -2969,8 +2920,8 @@
       <c r="H63" s="9">
         <v>1.4355E-2</v>
       </c>
-      <c r="I63" s="1" t="s">
-        <v>85</v>
+      <c r="I63" s="9">
+        <v>3.1830000000000001E-3</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
@@ -2978,7 +2929,7 @@
         <v>43</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>88</v>
+        <v>79</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
@@ -2998,8 +2949,8 @@
       <c r="H64" s="9">
         <v>1.4355E-2</v>
       </c>
-      <c r="I64" s="1" t="s">
-        <v>85</v>
+      <c r="I64" s="9">
+        <v>3.1830000000000001E-3</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
@@ -3007,7 +2958,7 @@
         <v>95</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>89</v>
+        <v>80</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
@@ -3027,8 +2978,8 @@
       <c r="H65" s="9">
         <v>1.4355E-2</v>
       </c>
-      <c r="I65" s="1" t="s">
-        <v>85</v>
+      <c r="I65" s="9">
+        <v>3.1830000000000001E-3</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
@@ -3036,7 +2987,7 @@
         <v>6</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>90</v>
+        <v>81</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
@@ -3056,8 +3007,8 @@
       <c r="H66" s="9">
         <v>2.2898999999999999E-2</v>
       </c>
-      <c r="I66" s="1" t="s">
-        <v>91</v>
+      <c r="I66" s="9">
+        <v>4.8869999999999999E-3</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
@@ -3065,7 +3016,7 @@
         <v>45</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>92</v>
+        <v>82</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
@@ -3085,8 +3036,8 @@
       <c r="H67" s="9">
         <v>2.2898999999999999E-2</v>
       </c>
-      <c r="I67" s="1" t="s">
-        <v>91</v>
+      <c r="I67" s="9">
+        <v>4.8869999999999999E-3</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
@@ -3094,7 +3045,7 @@
         <v>75</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>93</v>
+        <v>83</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
@@ -3114,8 +3065,8 @@
       <c r="H68" s="9">
         <v>2.2898999999999999E-2</v>
       </c>
-      <c r="I68" s="1" t="s">
-        <v>91</v>
+      <c r="I68" s="9">
+        <v>4.8869999999999999E-3</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
@@ -3123,7 +3074,7 @@
         <v>98</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>94</v>
+        <v>84</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
@@ -3143,8 +3094,8 @@
       <c r="H69" s="9">
         <v>2.2898999999999999E-2</v>
       </c>
-      <c r="I69" s="1" t="s">
-        <v>91</v>
+      <c r="I69" s="9">
+        <v>4.8869999999999999E-3</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
@@ -3152,7 +3103,7 @@
         <v>31</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>95</v>
+        <v>85</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
@@ -3172,8 +3123,8 @@
       <c r="H70" s="9">
         <v>2.4951000000000001E-2</v>
       </c>
-      <c r="I70" s="1" t="s">
-        <v>96</v>
+      <c r="I70" s="9">
+        <v>5.2630000000000003E-3</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
@@ -3181,7 +3132,7 @@
         <v>53</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>97</v>
+        <v>86</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
@@ -3201,8 +3152,8 @@
       <c r="H71" s="9">
         <v>1.9498999999999999E-2</v>
       </c>
-      <c r="I71" s="1" t="s">
-        <v>98</v>
+      <c r="I71" s="9">
+        <v>4.2519999999999997E-3</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
@@ -3210,7 +3161,7 @@
         <v>85</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>99</v>
+        <v>87</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
@@ -3230,8 +3181,8 @@
       <c r="H72" s="9">
         <v>2.6605E-2</v>
       </c>
-      <c r="I72" s="1" t="s">
-        <v>100</v>
+      <c r="I72" s="9">
+        <v>5.5459999999999997E-3</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
@@ -3239,7 +3190,7 @@
         <v>4</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>101</v>
+        <v>88</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
@@ -3259,8 +3210,8 @@
       <c r="H73" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I73" s="1" t="s">
-        <v>102</v>
+      <c r="I73" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
@@ -3268,7 +3219,7 @@
         <v>17</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>103</v>
+        <v>89</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
@@ -3288,8 +3239,8 @@
       <c r="H74" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I74" s="1" t="s">
-        <v>102</v>
+      <c r="I74" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
@@ -3297,7 +3248,7 @@
         <v>18</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>104</v>
+        <v>90</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
@@ -3317,8 +3268,8 @@
       <c r="H75" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I75" s="1" t="s">
-        <v>102</v>
+      <c r="I75" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
@@ -3326,7 +3277,7 @@
         <v>24</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>105</v>
+        <v>91</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
@@ -3346,8 +3297,8 @@
       <c r="H76" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I76" s="1" t="s">
-        <v>102</v>
+      <c r="I76" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
@@ -3355,7 +3306,7 @@
         <v>28</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>106</v>
+        <v>92</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
@@ -3375,8 +3326,8 @@
       <c r="H77" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I77" s="1" t="s">
-        <v>102</v>
+      <c r="I77" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
@@ -3384,7 +3335,7 @@
         <v>30</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>107</v>
+        <v>93</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
@@ -3404,8 +3355,8 @@
       <c r="H78" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I78" s="1" t="s">
-        <v>102</v>
+      <c r="I78" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
@@ -3413,7 +3364,7 @@
         <v>46</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>108</v>
+        <v>94</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
@@ -3433,8 +3384,8 @@
       <c r="H79" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I79" s="1" t="s">
-        <v>102</v>
+      <c r="I79" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
@@ -3442,7 +3393,7 @@
         <v>51</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
@@ -3462,8 +3413,8 @@
       <c r="H80" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I80" s="1" t="s">
-        <v>102</v>
+      <c r="I80" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
@@ -3471,7 +3422,7 @@
         <v>52</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>110</v>
+        <v>96</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
@@ -3491,8 +3442,8 @@
       <c r="H81" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I81" s="1" t="s">
-        <v>102</v>
+      <c r="I81" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
@@ -3500,7 +3451,7 @@
         <v>56</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
@@ -3520,8 +3471,8 @@
       <c r="H82" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I82" s="1" t="s">
-        <v>102</v>
+      <c r="I82" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
@@ -3529,7 +3480,7 @@
         <v>58</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
@@ -3549,8 +3500,8 @@
       <c r="H83" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I83" s="1" t="s">
-        <v>102</v>
+      <c r="I83" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
@@ -3558,7 +3509,7 @@
         <v>59</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>113</v>
+        <v>99</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
@@ -3578,8 +3529,8 @@
       <c r="H84" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I84" s="1" t="s">
-        <v>102</v>
+      <c r="I84" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
@@ -3587,7 +3538,7 @@
         <v>63</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>114</v>
+        <v>100</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
@@ -3607,8 +3558,8 @@
       <c r="H85" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I85" s="1" t="s">
-        <v>102</v>
+      <c r="I85" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
@@ -3616,7 +3567,7 @@
         <v>66</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>115</v>
+        <v>101</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
@@ -3636,8 +3587,8 @@
       <c r="H86" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I86" s="1" t="s">
-        <v>102</v>
+      <c r="I86" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
@@ -3645,7 +3596,7 @@
         <v>70</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>116</v>
+        <v>102</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
@@ -3665,8 +3616,8 @@
       <c r="H87" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I87" s="1" t="s">
-        <v>102</v>
+      <c r="I87" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
@@ -3674,7 +3625,7 @@
         <v>76</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
@@ -3694,8 +3645,8 @@
       <c r="H88" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I88" s="1" t="s">
-        <v>102</v>
+      <c r="I88" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
@@ -3703,7 +3654,7 @@
         <v>83</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
@@ -3723,8 +3674,8 @@
       <c r="H89" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I89" s="1" t="s">
-        <v>102</v>
+      <c r="I89" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
@@ -3732,7 +3683,7 @@
         <v>92</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>119</v>
+        <v>105</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
@@ -3752,8 +3703,8 @@
       <c r="H90" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I90" s="1" t="s">
-        <v>102</v>
+      <c r="I90" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
@@ -3761,7 +3712,7 @@
         <v>99</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>120</v>
+        <v>106</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
@@ -3781,8 +3732,8 @@
       <c r="H91" s="9">
         <v>1.6251999999999999E-2</v>
       </c>
-      <c r="I91" s="1" t="s">
-        <v>102</v>
+      <c r="I91" s="9">
+        <v>3.6310000000000001E-3</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
@@ -3790,7 +3741,7 @@
         <v>44</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>121</v>
+        <v>107</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
@@ -3810,8 +3761,8 @@
       <c r="H92" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I92" s="1" t="s">
-        <v>122</v>
+      <c r="I92" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
@@ -3819,7 +3770,7 @@
         <v>50</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>123</v>
+        <v>108</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
@@ -3839,8 +3790,8 @@
       <c r="H93" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I93" s="1" t="s">
-        <v>122</v>
+      <c r="I93" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
@@ -3848,7 +3799,7 @@
         <v>60</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>124</v>
+        <v>109</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
@@ -3868,8 +3819,8 @@
       <c r="H94" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I94" s="1" t="s">
-        <v>122</v>
+      <c r="I94" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
@@ -3877,7 +3828,7 @@
         <v>68</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>125</v>
+        <v>110</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
@@ -3897,8 +3848,8 @@
       <c r="H95" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I95" s="1" t="s">
-        <v>122</v>
+      <c r="I95" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
@@ -3906,7 +3857,7 @@
         <v>71</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>126</v>
+        <v>111</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
@@ -3926,8 +3877,8 @@
       <c r="H96" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I96" s="1" t="s">
-        <v>122</v>
+      <c r="I96" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
@@ -3935,7 +3886,7 @@
         <v>79</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>127</v>
+        <v>112</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
@@ -3955,8 +3906,8 @@
       <c r="H97" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I97" s="1" t="s">
-        <v>122</v>
+      <c r="I97" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
@@ -3964,7 +3915,7 @@
         <v>80</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>128</v>
+        <v>113</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
@@ -3984,8 +3935,8 @@
       <c r="H98" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I98" s="1" t="s">
-        <v>122</v>
+      <c r="I98" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
@@ -3993,7 +3944,7 @@
         <v>90</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>129</v>
+        <v>114</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
@@ -4013,8 +3964,8 @@
       <c r="H99" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I99" s="1" t="s">
-        <v>122</v>
+      <c r="I99" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
@@ -4022,7 +3973,7 @@
         <v>94</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>130</v>
+        <v>115</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
@@ -4042,8 +3993,8 @@
       <c r="H100" s="9">
         <v>1.6459000000000001E-2</v>
       </c>
-      <c r="I100" s="1" t="s">
-        <v>122</v>
+      <c r="I100" s="9">
+        <v>3.7859999999999999E-3</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
@@ -4051,7 +4002,7 @@
         <v>5</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>131</v>
+        <v>116</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
@@ -4071,8 +4022,8 @@
       <c r="H101" s="9">
         <v>1.8696999999999998E-2</v>
       </c>
-      <c r="I101" s="1" t="s">
-        <v>132</v>
+      <c r="I101" s="9">
+        <v>4.1879999999999999E-3</v>
       </c>
     </row>
   </sheetData>

--- a/maps/LA/LA20C_candidates.xlsx
+++ b/maps/LA/LA20C_candidates.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10419"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10613"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/LA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5ED7C9AF-8AB8-BB41-A15E-8CE510D0AE46}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B21C53-709C-2C42-89DE-503381859A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -509,7 +509,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="29">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -539,6 +539,11 @@
     <xf numFmtId="10" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -558,11 +563,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1082,7 +1087,7 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="I17" sqref="I17"/>
+      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1127,31 +1132,31 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="5">
-        <v>1</v>
-      </c>
-      <c r="B2" s="6" t="s">
+      <c r="A2" s="29">
+        <v>1</v>
+      </c>
+      <c r="B2" s="30" t="s">
         <v>17</v>
       </c>
-      <c r="C2" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="25">
+      <c r="C2" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="31">
         <v>2139381.0131299999</v>
       </c>
-      <c r="E2" s="21">
+      <c r="E2" s="32">
         <v>2.034E-2</v>
       </c>
-      <c r="F2" s="21">
+      <c r="F2" s="32">
         <v>0</v>
       </c>
-      <c r="G2" s="21">
-        <v>1</v>
-      </c>
-      <c r="H2" s="7">
+      <c r="G2" s="32">
+        <v>1</v>
+      </c>
+      <c r="H2" s="33">
         <v>0</v>
       </c>
-      <c r="I2" s="7">
+      <c r="I2" s="33">
         <v>0</v>
       </c>
     </row>
@@ -1272,31 +1277,31 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7">
+      <c r="A7" s="5">
         <v>9</v>
       </c>
-      <c r="B7" s="1" t="s">
+      <c r="B7" s="6" t="s">
         <v>22</v>
       </c>
-      <c r="C7" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="23">
+      <c r="C7" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="25">
         <v>2140075.0490649999</v>
       </c>
-      <c r="E7" s="22">
+      <c r="E7" s="21">
         <v>1.805E-2</v>
       </c>
-      <c r="F7" s="22">
+      <c r="F7" s="21">
         <v>3.2400000000000001E-4</v>
       </c>
-      <c r="G7" s="22">
+      <c r="G7" s="21">
         <v>0.99653000000000003</v>
       </c>
-      <c r="H7" s="9">
+      <c r="H7" s="7">
         <v>3.2823999999999999E-2</v>
       </c>
-      <c r="I7" s="9">
+      <c r="I7" s="7">
         <v>6.9750000000000003E-3</v>
       </c>
     </row>

--- a/maps/LA/LA20C_candidates.xlsx
+++ b/maps/LA/LA20C_candidates.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/alecramsay/Documents/dev/baseline/maps/LA/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01B21C53-709C-2C42-89DE-503381859A4F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1261AEE4-DCF6-6842-8B2D-3AA7DED634CE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="7700" yWindow="2160" windowWidth="27680" windowHeight="17440" activeTab="1" xr2:uid="{D543CB8F-2BD3-B543-A7A5-5EE0E66F6344}"/>
   </bookViews>
@@ -563,11 +563,11 @@
 </file>
 
 <file path=xl/queryTables/queryTable1.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/queryTables/queryTable2.xml><?xml version="1.0" encoding="utf-8"?>
-<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="NC20C_candidates" connectionId="1" xr16:uid="{E8ECD59F-78E1-9445-8C87-977C7625C967}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
+<queryTable xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr16="http://schemas.microsoft.com/office/spreadsheetml/2017/revision16" mc:Ignorable="xr16" name="WA20C_energies" connectionId="2" xr16:uid="{23C68319-8F52-5040-8BD6-497F344644FD}" autoFormatId="16" applyNumberFormats="0" applyBorderFormats="0" applyFontFormats="1" applyPatternFormats="1" applyAlignmentFormats="0" applyWidthHeightFormats="0"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -914,7 +914,7 @@
       </c>
       <c r="B4" s="22">
         <f>MIN(DATA!E$2:E$101)</f>
-        <v>1.7299999999999999E-2</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="C4" s="8">
         <f>MIN(DATA!F$2:F$101)</f>
@@ -922,7 +922,7 @@
       </c>
       <c r="D4" s="8">
         <f>MIN(DATA!G$2:G$101)</f>
-        <v>0.99653000000000003</v>
+        <v>0.64341300000000001</v>
       </c>
       <c r="E4" s="8">
         <f>MIN(DATA!H$2:H$101)</f>
@@ -939,11 +939,11 @@
       </c>
       <c r="B5" s="22">
         <f>MAX(DATA!E$2:E$101)</f>
-        <v>2.8500000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="C5" s="8">
         <f>MAX(DATA!F$2:F$101)</f>
-        <v>2.1589999999999999E-3</v>
+        <v>0.10720300000000001</v>
       </c>
       <c r="D5" s="8">
         <f>MAX(DATA!G$2:G$101)</f>
@@ -951,11 +951,11 @@
       </c>
       <c r="E5" s="8">
         <f>MAX(DATA!H$2:H$101)</f>
-        <v>3.2823999999999999E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="F5" s="8">
         <f>MAX(DATA!I$2:I$101)</f>
-        <v>6.9750000000000003E-3</v>
+        <v>0.88838600000000001</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.2">
@@ -964,23 +964,23 @@
       </c>
       <c r="B6" s="22">
         <f>AVERAGE(DATA!E$2:E$101)</f>
-        <v>2.186289999999997E-2</v>
+        <v>2.0516999999999992E-3</v>
       </c>
       <c r="C6" s="8">
         <f>AVERAGE(DATA!F$2:F$101)</f>
-        <v>1.0195100000000006E-3</v>
+        <v>4.3842439999999983E-2</v>
       </c>
       <c r="D6" s="8">
         <f>AVERAGE(DATA!G$2:G$101)</f>
-        <v>0.99803509999999918</v>
+        <v>0.82599189999999967</v>
       </c>
       <c r="E6" s="8">
         <f>AVERAGE(DATA!H$2:H$101)</f>
-        <v>1.7753619999999984E-2</v>
+        <v>0.60678407000000023</v>
       </c>
       <c r="F6" s="8">
         <f>AVERAGE(DATA!I$2:I$101)</f>
-        <v>3.9533200000000006E-3</v>
+        <v>0.45876266999999982</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.2">
@@ -989,23 +989,23 @@
       </c>
       <c r="B7" s="22">
         <f>MEDIAN(DATA!E$2:E$101)</f>
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="C7" s="8">
         <f>MEDIAN(DATA!F$2:F$101)</f>
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="D7" s="8">
         <f>MEDIAN(DATA!G$2:G$101)</f>
-        <v>0.99812000000000001</v>
+        <v>0.77527499999999994</v>
       </c>
       <c r="E7" s="8">
         <f>MEDIAN(DATA!H$2:H$101)</f>
-        <v>1.6459000000000001E-2</v>
+        <v>0.74053600000000008</v>
       </c>
       <c r="F7" s="8">
         <f>MEDIAN(DATA!I$2:I$101)</f>
-        <v>3.7859999999999999E-3</v>
+        <v>0.59193899999999999</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.2">
@@ -1014,23 +1014,23 @@
       </c>
       <c r="B8" s="27">
         <f>STDEV(DATA!E$2:E$101)</f>
-        <v>3.8873395371086007E-3</v>
+        <v>8.1891533953964578E-4</v>
       </c>
       <c r="C8" s="13">
         <f>STDEV(DATA!F$2:F$101)</f>
-        <v>6.526795042381253E-4</v>
+        <v>3.5552286445479357E-2</v>
       </c>
       <c r="D8" s="13">
         <f>STDEV(DATA!G$2:G$101)</f>
-        <v>6.7049873643097485E-4</v>
+        <v>0.116569363672628</v>
       </c>
       <c r="E8" s="13">
         <f>STDEV(DATA!H$2:H$101)</f>
-        <v>6.0993328063342119E-3</v>
+        <v>0.36189871521299005</v>
       </c>
       <c r="F8" s="13">
         <f>STDEV(DATA!I$2:I$101)</f>
-        <v>1.3488724350584859E-3</v>
+        <v>0.32307205259127031</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.2">
@@ -1087,17 +1087,17 @@
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="B1" sqref="B1"/>
       <selection pane="bottomLeft" activeCell="A2" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="B7" sqref="B7"/>
+      <selection pane="bottomRight" activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="4.1640625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="10.83203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="12.6640625" style="23" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="8" style="22" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.5" style="22" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="8.1640625" style="22" bestFit="1" customWidth="1"/>
     <col min="8" max="9" width="6.6640625" style="9" bestFit="1" customWidth="1"/>
   </cols>
@@ -1132,49 +1132,49 @@
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" s="29">
-        <v>1</v>
-      </c>
-      <c r="B2" s="30" t="s">
-        <v>17</v>
-      </c>
-      <c r="C2" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="D2" s="31">
-        <v>2139381.0131299999</v>
-      </c>
-      <c r="E2" s="32">
-        <v>2.034E-2</v>
-      </c>
-      <c r="F2" s="32">
+      <c r="A2" s="5">
+        <v>5</v>
+      </c>
+      <c r="B2" s="6" t="s">
+        <v>116</v>
+      </c>
+      <c r="C2" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="D2" s="25">
+        <v>2129319.6982169999</v>
+      </c>
+      <c r="E2" s="21">
+        <v>1.6900000000000001E-3</v>
+      </c>
+      <c r="F2" s="21">
         <v>0</v>
       </c>
-      <c r="G2" s="32">
-        <v>1</v>
-      </c>
-      <c r="H2" s="33">
+      <c r="G2" s="21">
+        <v>1</v>
+      </c>
+      <c r="H2" s="7">
         <v>0</v>
       </c>
-      <c r="I2" s="33">
+      <c r="I2" s="7">
         <v>0</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A3">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>18</v>
+        <v>74</v>
       </c>
       <c r="C3" t="b">
         <v>1</v>
       </c>
       <c r="D3" s="23">
-        <v>2139381.0131299999</v>
+        <v>2129319.6982169999</v>
       </c>
       <c r="E3" s="22">
-        <v>2.034E-2</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="F3" s="22">
         <v>0</v>
@@ -1191,19 +1191,19 @@
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A4">
-        <v>65</v>
+        <v>71</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>19</v>
+        <v>111</v>
       </c>
       <c r="C4" t="b">
         <v>1</v>
       </c>
       <c r="D4" s="23">
-        <v>2139381.0131299999</v>
+        <v>2129319.6982169999</v>
       </c>
       <c r="E4" s="22">
-        <v>2.034E-2</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="F4" s="22">
         <v>0</v>
@@ -1220,19 +1220,19 @@
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A5">
-        <v>86</v>
+        <v>78</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>20</v>
+        <v>70</v>
       </c>
       <c r="C5" t="b">
         <v>1</v>
       </c>
       <c r="D5" s="23">
-        <v>2139381.0131299999</v>
+        <v>2129319.6982169999</v>
       </c>
       <c r="E5" s="22">
-        <v>2.034E-2</v>
+        <v>1.6900000000000001E-3</v>
       </c>
       <c r="F5" s="22">
         <v>0</v>
@@ -1249,1394 +1249,1394 @@
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A6">
-        <v>64</v>
+        <v>7</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="C6" t="b">
         <v>1</v>
       </c>
       <c r="D6" s="23">
-        <v>2139452.6603399999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E6" s="22">
-        <v>2.2919999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F6" s="22">
-        <v>3.3000000000000003E-5</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G6" s="22">
-        <v>0.99914999999999998</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H6" s="9">
-        <v>8.5439999999999995E-3</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I6" s="9">
-        <v>1.704E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A7" s="5">
-        <v>9</v>
-      </c>
-      <c r="B7" s="6" t="s">
-        <v>22</v>
-      </c>
-      <c r="C7" s="5" t="b">
-        <v>1</v>
-      </c>
-      <c r="D7" s="25">
-        <v>2140075.0490649999</v>
-      </c>
-      <c r="E7" s="21">
-        <v>1.805E-2</v>
-      </c>
-      <c r="F7" s="21">
-        <v>3.2400000000000001E-4</v>
-      </c>
-      <c r="G7" s="21">
-        <v>0.99653000000000003</v>
-      </c>
-      <c r="H7" s="7">
-        <v>3.2823999999999999E-2</v>
-      </c>
-      <c r="I7" s="7">
-        <v>6.9750000000000003E-3</v>
+      <c r="A7" s="29">
+        <v>29</v>
+      </c>
+      <c r="B7" s="30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C7" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="D7" s="31">
+        <v>2129337.9480260001</v>
+      </c>
+      <c r="E7" s="32">
+        <v>1.81E-3</v>
+      </c>
+      <c r="F7" s="32">
+        <v>9.0000000000000002E-6</v>
+      </c>
+      <c r="G7" s="32">
+        <v>0.99867899999999998</v>
+      </c>
+      <c r="H7" s="33">
+        <v>1.2444E-2</v>
+      </c>
+      <c r="I7" s="33">
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A8">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>23</v>
+        <v>93</v>
       </c>
       <c r="C8" t="b">
         <v>1</v>
       </c>
       <c r="D8" s="23">
-        <v>2140075.0490649999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E8" s="22">
-        <v>1.805E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F8" s="22">
-        <v>3.2400000000000001E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G8" s="22">
-        <v>0.99653000000000003</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H8" s="9">
-        <v>3.2823999999999999E-2</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I8" s="9">
-        <v>6.9750000000000003E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A9">
-        <v>73</v>
+        <v>45</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>24</v>
+        <v>82</v>
       </c>
       <c r="C9" t="b">
         <v>1</v>
       </c>
       <c r="D9" s="23">
-        <v>2140130.7606429998</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E9" s="22">
-        <v>1.8149999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F9" s="22">
-        <v>3.5E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G9" s="22">
-        <v>0.99923600000000001</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H9" s="9">
-        <v>8.1799999999999998E-3</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I9" s="9">
-        <v>1.531E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A10">
-        <v>2</v>
+        <v>80</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>25</v>
+        <v>113</v>
       </c>
       <c r="C10" t="b">
         <v>1</v>
       </c>
       <c r="D10" s="23">
-        <v>2140151.9379139999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E10" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F10" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G10" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H10" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I10" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A11">
-        <v>12</v>
+        <v>96</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>26</v>
+        <v>57</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
       </c>
       <c r="D11" s="23">
-        <v>2140151.9379139999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E11" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F11" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G11" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H11" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I11" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="12" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A12">
-        <v>13</v>
+        <v>51</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>27</v>
+        <v>95</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" s="23">
-        <v>2140151.9379139999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E12" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F12" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G12" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H12" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I12" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="13" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A13">
-        <v>14</v>
+        <v>66</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>28</v>
+        <v>101</v>
       </c>
       <c r="C13" t="b">
         <v>1</v>
       </c>
       <c r="D13" s="23">
-        <v>2140151.9379139999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E13" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F13" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G13" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H13" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I13" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="14" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A14">
-        <v>15</v>
+        <v>72</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>29</v>
+        <v>49</v>
       </c>
       <c r="C14" t="b">
         <v>1</v>
       </c>
       <c r="D14" s="23">
-        <v>2140151.9379139999</v>
+        <v>2129337.9480260001</v>
       </c>
       <c r="E14" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.81E-3</v>
       </c>
       <c r="F14" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>9.0000000000000002E-6</v>
       </c>
       <c r="G14" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.99867899999999998</v>
       </c>
       <c r="H14" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.2444E-2</v>
       </c>
       <c r="I14" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>2.653E-3</v>
       </c>
     </row>
     <row r="15" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A15">
-        <v>20</v>
+        <v>49</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>30</v>
+        <v>67</v>
       </c>
       <c r="C15" t="b">
         <v>1</v>
       </c>
       <c r="D15" s="23">
-        <v>2140151.9379139999</v>
+        <v>2129553.0081489999</v>
       </c>
       <c r="E15" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="F15" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.1E-4</v>
       </c>
       <c r="G15" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.99883699999999997</v>
       </c>
       <c r="H15" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.1164E-2</v>
       </c>
       <c r="I15" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>2.3349999999999998E-3</v>
       </c>
     </row>
     <row r="16" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A16">
-        <v>21</v>
+        <v>87</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>31</v>
+        <v>53</v>
       </c>
       <c r="C16" t="b">
         <v>1</v>
       </c>
       <c r="D16" s="23">
-        <v>2140151.9379139999</v>
+        <v>2131722.2163180001</v>
       </c>
       <c r="E16" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="F16" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.1280000000000001E-3</v>
       </c>
       <c r="G16" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.96692100000000003</v>
       </c>
       <c r="H16" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.20563500000000001</v>
       </c>
       <c r="I16" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>7.0614999999999997E-2</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A17">
-        <v>22</v>
+        <v>31</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>32</v>
+        <v>85</v>
       </c>
       <c r="C17" t="b">
         <v>1</v>
       </c>
       <c r="D17" s="23">
-        <v>2140151.9379139999</v>
+        <v>2131722.2163180001</v>
       </c>
       <c r="E17" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="F17" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.1280000000000001E-3</v>
       </c>
       <c r="G17" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.96692100000000003</v>
       </c>
       <c r="H17" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.20563500000000001</v>
       </c>
       <c r="I17" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>7.0614999999999997E-2</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A18">
-        <v>23</v>
+        <v>58</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>33</v>
+        <v>98</v>
       </c>
       <c r="C18" t="b">
         <v>1</v>
       </c>
       <c r="D18" s="23">
-        <v>2140151.9379139999</v>
+        <v>2131722.2163180001</v>
       </c>
       <c r="E18" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>9.3000000000000005E-4</v>
       </c>
       <c r="F18" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.1280000000000001E-3</v>
       </c>
       <c r="G18" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.96692100000000003</v>
       </c>
       <c r="H18" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.20563500000000001</v>
       </c>
       <c r="I18" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>7.0614999999999997E-2</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A19">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C19" t="b">
         <v>1</v>
       </c>
       <c r="D19" s="23">
-        <v>2140151.9379139999</v>
+        <v>2132500.9162829998</v>
       </c>
       <c r="E19" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2800000000000001E-3</v>
       </c>
       <c r="F19" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.4940000000000001E-3</v>
       </c>
       <c r="G19" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.94911100000000004</v>
       </c>
       <c r="H19" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.28001799999999999</v>
       </c>
       <c r="I19" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.112243</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A20">
-        <v>27</v>
+        <v>9</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>35</v>
+        <v>22</v>
       </c>
       <c r="C20" t="b">
         <v>1</v>
       </c>
       <c r="D20" s="23">
-        <v>2140151.9379139999</v>
+        <v>2132572.4631170002</v>
       </c>
       <c r="E20" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.6800000000000001E-3</v>
       </c>
       <c r="F20" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.5280000000000001E-3</v>
       </c>
       <c r="G20" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.96106400000000003</v>
       </c>
       <c r="H20" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.23005800000000001</v>
       </c>
       <c r="I20" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>8.4069000000000005E-2</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A21">
-        <v>32</v>
+        <v>95</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>36</v>
+        <v>80</v>
       </c>
       <c r="C21" t="b">
         <v>1</v>
       </c>
       <c r="D21" s="23">
-        <v>2140151.9379139999</v>
+        <v>2132611.961712</v>
       </c>
       <c r="E21" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.1199999999999999E-3</v>
       </c>
       <c r="F21" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.5460000000000001E-3</v>
       </c>
       <c r="G21" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.95730099999999996</v>
       </c>
       <c r="H21" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.246832</v>
       </c>
       <c r="I21" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>9.2794000000000001E-2</v>
       </c>
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A22">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>37</v>
+        <v>66</v>
       </c>
       <c r="C22" t="b">
         <v>1</v>
       </c>
       <c r="D22" s="23">
-        <v>2140151.9379139999</v>
+        <v>2133131.3294600002</v>
       </c>
       <c r="E22" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F22" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>1.7899999999999999E-3</v>
       </c>
       <c r="G22" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.94668600000000003</v>
       </c>
       <c r="H22" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.29081800000000002</v>
       </c>
       <c r="I22" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.11811199999999999</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A23">
-        <v>35</v>
+        <v>24</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>38</v>
+        <v>91</v>
       </c>
       <c r="C23" t="b">
         <v>1</v>
       </c>
       <c r="D23" s="23">
-        <v>2140151.9379139999</v>
+        <v>2133960.8156030001</v>
       </c>
       <c r="E23" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.1299999999999999E-3</v>
       </c>
       <c r="F23" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.1800000000000001E-3</v>
       </c>
       <c r="G23" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93989400000000001</v>
       </c>
       <c r="H23" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.31396200000000002</v>
       </c>
       <c r="I23" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.134911</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A24">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>39</v>
+        <v>65</v>
       </c>
       <c r="C24" t="b">
         <v>1</v>
       </c>
       <c r="D24" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135266.6000689999</v>
       </c>
       <c r="E24" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="F24" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.7929999999999999E-3</v>
       </c>
       <c r="G24" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93942000000000003</v>
       </c>
       <c r="H24" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.30932599999999999</v>
       </c>
       <c r="I24" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.13661200000000001</v>
       </c>
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A25">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>40</v>
+        <v>96</v>
       </c>
       <c r="C25" t="b">
         <v>1</v>
       </c>
       <c r="D25" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135266.6000689999</v>
       </c>
       <c r="E25" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="F25" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.7929999999999999E-3</v>
       </c>
       <c r="G25" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93942000000000003</v>
       </c>
       <c r="H25" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.30932599999999999</v>
       </c>
       <c r="I25" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.13661200000000001</v>
       </c>
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A26">
-        <v>42</v>
+        <v>81</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="C26" t="b">
         <v>1</v>
       </c>
       <c r="D26" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135266.6000689999</v>
       </c>
       <c r="E26" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="F26" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.7929999999999999E-3</v>
       </c>
       <c r="G26" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93942000000000003</v>
       </c>
       <c r="H26" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.30932599999999999</v>
       </c>
       <c r="I26" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.13661200000000001</v>
       </c>
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27">
-        <v>47</v>
+        <v>100</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>42</v>
+        <v>59</v>
       </c>
       <c r="C27" t="b">
         <v>1</v>
       </c>
       <c r="D27" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135266.6000689999</v>
       </c>
       <c r="E27" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="F27" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.7929999999999999E-3</v>
       </c>
       <c r="G27" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93942000000000003</v>
       </c>
       <c r="H27" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.30932599999999999</v>
       </c>
       <c r="I27" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.13661200000000001</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>43</v>
+        <v>21</v>
       </c>
       <c r="C28" t="b">
         <v>1</v>
       </c>
       <c r="D28" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135266.6000689999</v>
       </c>
       <c r="E28" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.7700000000000001E-3</v>
       </c>
       <c r="F28" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.7929999999999999E-3</v>
       </c>
       <c r="G28" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93942000000000003</v>
       </c>
       <c r="H28" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.30932599999999999</v>
       </c>
       <c r="I28" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.13661200000000001</v>
       </c>
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29">
-        <v>54</v>
+        <v>68</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>44</v>
+        <v>110</v>
       </c>
       <c r="C29" t="b">
         <v>1</v>
       </c>
       <c r="D29" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135499.313294</v>
       </c>
       <c r="E29" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="F29" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="G29" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93825599999999998</v>
       </c>
       <c r="H29" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.32047399999999998</v>
       </c>
       <c r="I29" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139013</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A30">
-        <v>57</v>
+        <v>84</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>45</v>
+        <v>71</v>
       </c>
       <c r="C30" t="b">
         <v>1</v>
       </c>
       <c r="D30" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135499.313294</v>
       </c>
       <c r="E30" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="F30" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="G30" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93825599999999998</v>
       </c>
       <c r="H30" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.32047399999999998</v>
       </c>
       <c r="I30" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139013</v>
       </c>
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A31">
-        <v>61</v>
+        <v>91</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>46</v>
+        <v>55</v>
       </c>
       <c r="C31" t="b">
         <v>1</v>
       </c>
       <c r="D31" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135499.313294</v>
       </c>
       <c r="E31" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="F31" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9020000000000001E-3</v>
       </c>
       <c r="G31" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93825599999999998</v>
       </c>
       <c r="H31" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.32047399999999998</v>
       </c>
       <c r="I31" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139013</v>
       </c>
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A32">
-        <v>67</v>
+        <v>33</v>
       </c>
       <c r="B32" s="1" t="s">
-        <v>47</v>
+        <v>78</v>
       </c>
       <c r="C32" t="b">
         <v>1</v>
       </c>
       <c r="D32" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135552.648668</v>
       </c>
       <c r="E32" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F32" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9269999999999999E-3</v>
       </c>
       <c r="G32" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93820999999999999</v>
       </c>
       <c r="H32" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.320633</v>
       </c>
       <c r="I32" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139128</v>
       </c>
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A33">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="B33" s="1" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="C33" t="b">
         <v>1</v>
       </c>
       <c r="D33" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135552.648668</v>
       </c>
       <c r="E33" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F33" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9269999999999999E-3</v>
       </c>
       <c r="G33" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93820999999999999</v>
       </c>
       <c r="H33" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.320633</v>
       </c>
       <c r="I33" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139128</v>
       </c>
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A34">
-        <v>72</v>
+        <v>36</v>
       </c>
       <c r="B34" s="1" t="s">
-        <v>49</v>
+        <v>23</v>
       </c>
       <c r="C34" t="b">
         <v>1</v>
       </c>
       <c r="D34" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135552.648668</v>
       </c>
       <c r="E34" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F34" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9269999999999999E-3</v>
       </c>
       <c r="G34" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93820999999999999</v>
       </c>
       <c r="H34" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.320633</v>
       </c>
       <c r="I34" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139128</v>
       </c>
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A35">
-        <v>77</v>
+        <v>69</v>
       </c>
       <c r="B35" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="C35" t="b">
         <v>1</v>
       </c>
       <c r="D35" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135552.648668</v>
       </c>
       <c r="E35" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F35" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9269999999999999E-3</v>
       </c>
       <c r="G35" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93820999999999999</v>
       </c>
       <c r="H35" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.320633</v>
       </c>
       <c r="I35" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139128</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A36">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="B36" s="1" t="s">
-        <v>51</v>
+        <v>24</v>
       </c>
       <c r="C36" t="b">
         <v>1</v>
       </c>
       <c r="D36" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135552.648668</v>
       </c>
       <c r="E36" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F36" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9269999999999999E-3</v>
       </c>
       <c r="G36" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93820999999999999</v>
       </c>
       <c r="H36" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.320633</v>
       </c>
       <c r="I36" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139128</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A37">
-        <v>82</v>
+        <v>94</v>
       </c>
       <c r="B37" s="1" t="s">
-        <v>52</v>
+        <v>115</v>
       </c>
       <c r="C37" t="b">
         <v>1</v>
       </c>
       <c r="D37" s="23">
-        <v>2140151.9379139999</v>
+        <v>2135552.648668</v>
       </c>
       <c r="E37" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.01E-3</v>
       </c>
       <c r="F37" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>2.9269999999999999E-3</v>
       </c>
       <c r="G37" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93820999999999999</v>
       </c>
       <c r="H37" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.320633</v>
       </c>
       <c r="I37" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.139128</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A38">
-        <v>87</v>
+        <v>57</v>
       </c>
       <c r="B38" s="1" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="C38" t="b">
         <v>1</v>
       </c>
       <c r="D38" s="23">
-        <v>2140151.9379139999</v>
+        <v>2136007.4433869999</v>
       </c>
       <c r="E38" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.2899999999999999E-3</v>
       </c>
       <c r="F38" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>3.1410000000000001E-3</v>
       </c>
       <c r="G38" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93787500000000001</v>
       </c>
       <c r="H38" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.32474700000000001</v>
       </c>
       <c r="I38" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.13977999999999999</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A39">
-        <v>88</v>
+        <v>61</v>
       </c>
       <c r="B39" s="1" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="C39" t="b">
         <v>1</v>
       </c>
       <c r="D39" s="23">
-        <v>2140151.9379139999</v>
+        <v>2140584.372548</v>
       </c>
       <c r="E39" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="F39" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="G39" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93532700000000002</v>
       </c>
       <c r="H39" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.33010699999999998</v>
       </c>
       <c r="I39" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.146785</v>
       </c>
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A40">
-        <v>91</v>
+        <v>6</v>
       </c>
       <c r="B40" s="1" t="s">
-        <v>55</v>
+        <v>81</v>
       </c>
       <c r="C40" t="b">
         <v>1</v>
       </c>
       <c r="D40" s="23">
-        <v>2140151.9379139999</v>
+        <v>2140584.372548</v>
       </c>
       <c r="E40" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>8.3000000000000001E-4</v>
       </c>
       <c r="F40" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>5.2900000000000004E-3</v>
       </c>
       <c r="G40" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.93532700000000002</v>
       </c>
       <c r="H40" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>0.33010699999999998</v>
       </c>
       <c r="I40" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.146785</v>
       </c>
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A41">
-        <v>93</v>
+        <v>3</v>
       </c>
       <c r="B41" s="1" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="C41" t="b">
         <v>1</v>
       </c>
       <c r="D41" s="23">
-        <v>2140151.9379139999</v>
+        <v>2261084.8675179998</v>
       </c>
       <c r="E41" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>2.2599999999999999E-3</v>
       </c>
       <c r="F41" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>6.1880999999999999E-2</v>
       </c>
       <c r="G41" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.69554099999999996</v>
       </c>
       <c r="H41" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.0176270000000001</v>
       </c>
       <c r="I41" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.83999400000000002</v>
       </c>
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A42">
-        <v>96</v>
+        <v>77</v>
       </c>
       <c r="B42" s="1" t="s">
-        <v>57</v>
+        <v>50</v>
       </c>
       <c r="C42" t="b">
         <v>1</v>
       </c>
       <c r="D42" s="23">
-        <v>2140151.9379139999</v>
+        <v>2261183.0286940001</v>
       </c>
       <c r="E42" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>1.56E-3</v>
       </c>
       <c r="F42" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>6.1927000000000003E-2</v>
       </c>
       <c r="G42" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.693886</v>
       </c>
       <c r="H42" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.0191589999999999</v>
       </c>
       <c r="I42" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.84294400000000003</v>
       </c>
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A43">
-        <v>97</v>
+        <v>18</v>
       </c>
       <c r="B43" s="1" t="s">
-        <v>58</v>
+        <v>90</v>
       </c>
       <c r="C43" t="b">
         <v>1</v>
       </c>
       <c r="D43" s="23">
-        <v>2140151.9379139999</v>
+        <v>2261899.6146769999</v>
       </c>
       <c r="E43" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>3.2399999999999998E-3</v>
       </c>
       <c r="F43" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>6.2264E-2</v>
       </c>
       <c r="G43" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.69523900000000005</v>
       </c>
       <c r="H43" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.014661</v>
       </c>
       <c r="I43" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.83510200000000001</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A44">
-        <v>100</v>
+        <v>12</v>
       </c>
       <c r="B44" s="1" t="s">
-        <v>59</v>
+        <v>26</v>
       </c>
       <c r="C44" t="b">
         <v>1</v>
       </c>
       <c r="D44" s="23">
-        <v>2140151.9379139999</v>
+        <v>2261967.509904</v>
       </c>
       <c r="E44" s="22">
-        <v>1.7299999999999999E-2</v>
+        <v>6.9999999999999999E-4</v>
       </c>
       <c r="F44" s="22">
-        <v>3.6000000000000002E-4</v>
+        <v>6.2295999999999997E-2</v>
       </c>
       <c r="G44" s="22">
-        <v>0.99748400000000004</v>
+        <v>0.69232000000000005</v>
       </c>
       <c r="H44" s="9">
-        <v>2.2471000000000001E-2</v>
+        <v>1.0262819999999999</v>
       </c>
       <c r="I44" s="9">
-        <v>5.0629999999999998E-3</v>
+        <v>0.85181799999999996</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A45">
-        <v>19</v>
+        <v>13</v>
       </c>
       <c r="B45" s="1" t="s">
-        <v>60</v>
+        <v>27</v>
       </c>
       <c r="C45" t="b">
         <v>1</v>
       </c>
       <c r="D45" s="23">
-        <v>2141763.52936</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E45" s="22">
-        <v>2.4819999999999998E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F45" s="22">
-        <v>1.114E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G45" s="22">
-        <v>0.99852799999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H45" s="9">
-        <v>1.3721000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I45" s="9">
-        <v>2.9580000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A46">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="B46" s="1" t="s">
-        <v>61</v>
+        <v>29</v>
       </c>
       <c r="C46" t="b">
         <v>1</v>
       </c>
       <c r="D46" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E46" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F46" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G46" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H46" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I46" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A47">
-        <v>7</v>
+        <v>16</v>
       </c>
       <c r="B47" s="1" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="C47" t="b">
         <v>1</v>
       </c>
       <c r="D47" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E47" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F47" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G47" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H47" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I47" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A48">
-        <v>10</v>
+        <v>35</v>
       </c>
       <c r="B48" s="1" t="s">
-        <v>63</v>
+        <v>38</v>
       </c>
       <c r="C48" t="b">
         <v>1</v>
       </c>
       <c r="D48" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E48" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F48" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G48" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H48" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I48" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A49">
-        <v>16</v>
+        <v>47</v>
       </c>
       <c r="B49" s="1" t="s">
-        <v>64</v>
+        <v>42</v>
       </c>
       <c r="C49" t="b">
         <v>1</v>
       </c>
       <c r="D49" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E49" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F49" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G49" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H49" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I49" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A50">
-        <v>26</v>
+        <v>48</v>
       </c>
       <c r="B50" s="1" t="s">
-        <v>65</v>
+        <v>43</v>
       </c>
       <c r="C50" t="b">
         <v>1</v>
       </c>
       <c r="D50" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E50" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F50" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G50" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H50" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I50" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A51">
-        <v>41</v>
+        <v>56</v>
       </c>
       <c r="B51" s="1" t="s">
-        <v>66</v>
+        <v>97</v>
       </c>
       <c r="C51" t="b">
         <v>1</v>
       </c>
       <c r="D51" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E51" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F51" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G51" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H51" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I51" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A52">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="B52" s="1" t="s">
-        <v>67</v>
+        <v>100</v>
       </c>
       <c r="C52" t="b">
         <v>1</v>
       </c>
       <c r="D52" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E52" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F52" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G52" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H52" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I52" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A53">
-        <v>62</v>
+        <v>70</v>
       </c>
       <c r="B53" s="1" t="s">
-        <v>68</v>
+        <v>102</v>
       </c>
       <c r="C53" t="b">
         <v>1</v>
       </c>
       <c r="D53" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E53" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F53" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G53" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H53" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I53" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="54" spans="1:9" x14ac:dyDescent="0.2">
@@ -2650,1385 +2650,1385 @@
         <v>1</v>
       </c>
       <c r="D54" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E54" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F54" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G54" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H54" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I54" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A55">
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="B55" s="1" t="s">
-        <v>70</v>
+        <v>112</v>
       </c>
       <c r="C55" t="b">
         <v>1</v>
       </c>
       <c r="D55" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E55" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F55" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G55" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H55" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I55" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A56">
-        <v>84</v>
+        <v>99</v>
       </c>
       <c r="B56" s="1" t="s">
-        <v>71</v>
+        <v>106</v>
       </c>
       <c r="C56" t="b">
         <v>1</v>
       </c>
       <c r="D56" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E56" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F56" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G56" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H56" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I56" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57">
-        <v>89</v>
+        <v>46</v>
       </c>
       <c r="B57" s="1" t="s">
-        <v>72</v>
+        <v>94</v>
       </c>
       <c r="C57" t="b">
         <v>1</v>
       </c>
       <c r="D57" s="23">
-        <v>2141870.9377580001</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E57" s="22">
-        <v>2.299E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F57" s="22">
-        <v>1.1640000000000001E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G57" s="22">
-        <v>0.99883699999999997</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H57" s="9">
-        <v>1.0474000000000001E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I57" s="9">
-        <v>2.3400000000000001E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A58">
-        <v>11</v>
+        <v>21</v>
       </c>
       <c r="B58" s="1" t="s">
-        <v>73</v>
+        <v>31</v>
       </c>
       <c r="C58" t="b">
         <v>1</v>
       </c>
       <c r="D58" s="23">
-        <v>2141942.5849680002</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E58" s="22">
-        <v>2.5569999999999999E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F58" s="22">
-        <v>1.1969999999999999E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G58" s="22">
-        <v>0.99798799999999999</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H58" s="9">
-        <v>1.9018E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I58" s="9">
-        <v>4.0429999999999997E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A59">
+        <v>34</v>
+      </c>
+      <c r="B59" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B59" s="1" t="s">
-        <v>74</v>
-      </c>
       <c r="C59" t="b">
         <v>1</v>
       </c>
       <c r="D59" s="23">
-        <v>2141942.5849680002</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E59" s="22">
-        <v>2.5569999999999999E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F59" s="22">
-        <v>1.1969999999999999E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G59" s="22">
-        <v>0.99798799999999999</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H59" s="9">
-        <v>1.9018E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I59" s="9">
-        <v>4.0429999999999997E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60">
-        <v>55</v>
+        <v>67</v>
       </c>
       <c r="B60" s="1" t="s">
-        <v>75</v>
+        <v>47</v>
       </c>
       <c r="C60" t="b">
         <v>1</v>
       </c>
       <c r="D60" s="23">
-        <v>2141942.5849680002</v>
+        <v>2262148.4171020002</v>
       </c>
       <c r="E60" s="22">
-        <v>2.5569999999999999E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F60" s="22">
-        <v>1.1969999999999999E-3</v>
+        <v>6.2380999999999999E-2</v>
       </c>
       <c r="G60" s="22">
-        <v>0.99798799999999999</v>
+        <v>0.69183499999999998</v>
       </c>
       <c r="H60" s="9">
-        <v>1.9018E-2</v>
+        <v>1.0280210000000001</v>
       </c>
       <c r="I60" s="9">
-        <v>4.0429999999999997E-3</v>
+        <v>0.85371200000000003</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61">
-        <v>8</v>
+        <v>88</v>
       </c>
       <c r="B61" s="1" t="s">
-        <v>76</v>
+        <v>54</v>
       </c>
       <c r="C61" t="b">
         <v>1</v>
       </c>
       <c r="D61" s="23">
-        <v>2142440.0272710002</v>
+        <v>2263113.791946</v>
       </c>
       <c r="E61" s="22">
-        <v>2.5510000000000001E-2</v>
+        <v>2.8500000000000001E-3</v>
       </c>
       <c r="F61" s="22">
-        <v>1.4300000000000001E-3</v>
+        <v>6.2834000000000001E-2</v>
       </c>
       <c r="G61" s="22">
-        <v>0.998417</v>
+        <v>0.71601499999999996</v>
       </c>
       <c r="H61" s="9">
-        <v>1.4355E-2</v>
+        <v>0.96381499999999998</v>
       </c>
       <c r="I61" s="9">
-        <v>3.1830000000000001E-3</v>
+        <v>0.77407899999999996</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A62">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B62" s="1" t="s">
-        <v>77</v>
+        <v>34</v>
       </c>
       <c r="C62" t="b">
         <v>1</v>
       </c>
       <c r="D62" s="23">
-        <v>2142440.0272710002</v>
+        <v>2265993.4055679999</v>
       </c>
       <c r="E62" s="22">
-        <v>2.5510000000000001E-2</v>
+        <v>2.8400000000000001E-3</v>
       </c>
       <c r="F62" s="22">
-        <v>1.4300000000000001E-3</v>
+        <v>6.4186999999999994E-2</v>
       </c>
       <c r="G62" s="22">
-        <v>0.998417</v>
+        <v>0.77573199999999998</v>
       </c>
       <c r="H62" s="9">
-        <v>1.4355E-2</v>
+        <v>0.75037100000000001</v>
       </c>
       <c r="I62" s="9">
-        <v>3.1830000000000001E-3</v>
+        <v>0.61880900000000005</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A63">
-        <v>33</v>
+        <v>76</v>
       </c>
       <c r="B63" s="1" t="s">
-        <v>78</v>
+        <v>103</v>
       </c>
       <c r="C63" t="b">
         <v>1</v>
       </c>
       <c r="D63" s="23">
-        <v>2142440.0272710002</v>
+        <v>2266221.8575940002</v>
       </c>
       <c r="E63" s="22">
-        <v>2.5510000000000001E-2</v>
+        <v>3.65E-3</v>
       </c>
       <c r="F63" s="22">
-        <v>1.4300000000000001E-3</v>
+        <v>6.4294000000000004E-2</v>
       </c>
       <c r="G63" s="22">
-        <v>0.998417</v>
+        <v>0.77958099999999997</v>
       </c>
       <c r="H63" s="9">
-        <v>1.4355E-2</v>
+        <v>0.73390100000000003</v>
       </c>
       <c r="I63" s="9">
-        <v>3.1830000000000001E-3</v>
+        <v>0.60404599999999997</v>
       </c>
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A64">
-        <v>43</v>
+        <v>89</v>
       </c>
       <c r="B64" s="1" t="s">
-        <v>79</v>
+        <v>72</v>
       </c>
       <c r="C64" t="b">
         <v>1</v>
       </c>
       <c r="D64" s="23">
-        <v>2142440.0272710002</v>
+        <v>2266310.8686449998</v>
       </c>
       <c r="E64" s="22">
-        <v>2.5510000000000001E-2</v>
+        <v>2.2899999999999999E-3</v>
       </c>
       <c r="F64" s="22">
-        <v>1.4300000000000001E-3</v>
+        <v>6.4336000000000004E-2</v>
       </c>
       <c r="G64" s="22">
-        <v>0.998417</v>
+        <v>0.788215</v>
       </c>
       <c r="H64" s="9">
-        <v>1.4355E-2</v>
+        <v>0.67608100000000004</v>
       </c>
       <c r="I64" s="9">
-        <v>3.1830000000000001E-3</v>
+        <v>0.58877299999999999</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A65">
-        <v>95</v>
+        <v>55</v>
       </c>
       <c r="B65" s="1" t="s">
-        <v>80</v>
+        <v>75</v>
       </c>
       <c r="C65" t="b">
         <v>1</v>
       </c>
       <c r="D65" s="23">
-        <v>2142440.0272710002</v>
+        <v>2266458.741562</v>
       </c>
       <c r="E65" s="22">
-        <v>2.5510000000000001E-2</v>
+        <v>4.4600000000000004E-3</v>
       </c>
       <c r="F65" s="22">
-        <v>1.4300000000000001E-3</v>
+        <v>6.4405000000000004E-2</v>
       </c>
       <c r="G65" s="22">
-        <v>0.998417</v>
+        <v>0.78405899999999995</v>
       </c>
       <c r="H65" s="9">
-        <v>1.4355E-2</v>
+        <v>0.704793</v>
       </c>
       <c r="I65" s="9">
-        <v>3.1830000000000001E-3</v>
+        <v>0.595105</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A66">
-        <v>6</v>
+        <v>22</v>
       </c>
       <c r="B66" s="1" t="s">
-        <v>81</v>
+        <v>32</v>
       </c>
       <c r="C66" t="b">
         <v>1</v>
       </c>
       <c r="D66" s="23">
-        <v>2142511.67448</v>
+        <v>2266740.3283190001</v>
       </c>
       <c r="E66" s="22">
-        <v>2.81E-2</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="F66" s="22">
-        <v>1.4630000000000001E-3</v>
+        <v>6.4536999999999997E-2</v>
       </c>
       <c r="G66" s="22">
-        <v>0.99756699999999998</v>
+        <v>0.78224300000000002</v>
       </c>
       <c r="H66" s="9">
-        <v>2.2898999999999999E-2</v>
+        <v>0.71895399999999998</v>
       </c>
       <c r="I66" s="9">
-        <v>4.8869999999999999E-3</v>
+        <v>0.60050000000000003</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A67">
-        <v>45</v>
+        <v>75</v>
       </c>
       <c r="B67" s="1" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="C67" t="b">
         <v>1</v>
       </c>
       <c r="D67" s="23">
-        <v>2142511.67448</v>
+        <v>2266768.6918540001</v>
       </c>
       <c r="E67" s="22">
-        <v>2.81E-2</v>
+        <v>1.33E-3</v>
       </c>
       <c r="F67" s="22">
-        <v>1.4630000000000001E-3</v>
+        <v>6.4550999999999997E-2</v>
       </c>
       <c r="G67" s="22">
-        <v>0.99756699999999998</v>
+        <v>0.69714399999999999</v>
       </c>
       <c r="H67" s="9">
-        <v>2.2898999999999999E-2</v>
+        <v>0.99818300000000004</v>
       </c>
       <c r="I67" s="9">
-        <v>4.8869999999999999E-3</v>
+        <v>0.81632400000000005</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A68">
-        <v>75</v>
+        <v>93</v>
       </c>
       <c r="B68" s="1" t="s">
-        <v>83</v>
+        <v>56</v>
       </c>
       <c r="C68" t="b">
         <v>1</v>
       </c>
       <c r="D68" s="23">
-        <v>2142511.67448</v>
+        <v>2266790.9881259999</v>
       </c>
       <c r="E68" s="22">
-        <v>2.81E-2</v>
+        <v>2.3500000000000001E-3</v>
       </c>
       <c r="F68" s="22">
-        <v>1.4630000000000001E-3</v>
+        <v>6.4560999999999993E-2</v>
       </c>
       <c r="G68" s="22">
-        <v>0.99756699999999998</v>
+        <v>0.78254599999999996</v>
       </c>
       <c r="H68" s="9">
-        <v>2.2898999999999999E-2</v>
+        <v>0.71506899999999995</v>
       </c>
       <c r="I68" s="9">
-        <v>4.8869999999999999E-3</v>
+        <v>0.59985100000000002</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A69">
-        <v>98</v>
+        <v>23</v>
       </c>
       <c r="B69" s="1" t="s">
-        <v>84</v>
+        <v>33</v>
       </c>
       <c r="C69" t="b">
         <v>1</v>
       </c>
       <c r="D69" s="23">
-        <v>2142511.67448</v>
+        <v>2267030.8080369998</v>
       </c>
       <c r="E69" s="22">
-        <v>2.81E-2</v>
+        <v>2.3700000000000001E-3</v>
       </c>
       <c r="F69" s="22">
-        <v>1.4630000000000001E-3</v>
+        <v>6.4673999999999995E-2</v>
       </c>
       <c r="G69" s="22">
-        <v>0.99756699999999998</v>
+        <v>0.77656700000000001</v>
       </c>
       <c r="H69" s="9">
-        <v>2.2898999999999999E-2</v>
+        <v>0.74832399999999999</v>
       </c>
       <c r="I69" s="9">
-        <v>4.8869999999999999E-3</v>
+        <v>0.61048899999999995</v>
       </c>
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A70">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="B70" s="1" t="s">
-        <v>85</v>
+        <v>41</v>
       </c>
       <c r="C70" t="b">
         <v>1</v>
       </c>
       <c r="D70" s="23">
-        <v>2142896.0790220001</v>
+        <v>2267142.277824</v>
       </c>
       <c r="E70" s="22">
-        <v>2.445E-2</v>
+        <v>2.64E-3</v>
       </c>
       <c r="F70" s="22">
-        <v>1.6429999999999999E-3</v>
+        <v>6.4726000000000006E-2</v>
       </c>
       <c r="G70" s="22">
-        <v>0.99738300000000002</v>
+        <v>0.77481800000000001</v>
       </c>
       <c r="H70" s="9">
-        <v>2.4951000000000001E-2</v>
+        <v>0.75690999999999997</v>
       </c>
       <c r="I70" s="9">
-        <v>5.2630000000000003E-3</v>
+        <v>0.61495599999999995</v>
       </c>
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A71">
-        <v>53</v>
+        <v>17</v>
       </c>
       <c r="B71" s="1" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
       <c r="C71" t="b">
         <v>1</v>
       </c>
       <c r="D71" s="23">
-        <v>2142931.9703919999</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E71" s="22">
-        <v>2.581E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F71" s="22">
-        <v>1.66E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G71" s="22">
-        <v>0.99788699999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H71" s="9">
-        <v>1.9498999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I71" s="9">
-        <v>4.2519999999999997E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A72">
-        <v>85</v>
+        <v>20</v>
       </c>
       <c r="B72" s="1" t="s">
-        <v>87</v>
+        <v>30</v>
       </c>
       <c r="C72" t="b">
         <v>1</v>
       </c>
       <c r="D72" s="23">
-        <v>2142962.9793500002</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E72" s="22">
-        <v>2.4729999999999999E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F72" s="22">
-        <v>1.6739999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G72" s="22">
-        <v>0.99724199999999996</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H72" s="9">
-        <v>2.6605E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I72" s="9">
-        <v>5.5459999999999997E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A73">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="B73" s="1" t="s">
-        <v>88</v>
+        <v>18</v>
       </c>
       <c r="C73" t="b">
         <v>1</v>
       </c>
       <c r="D73" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E73" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F73" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G73" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H73" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I73" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A74">
-        <v>17</v>
+        <v>40</v>
       </c>
       <c r="B74" s="1" t="s">
-        <v>89</v>
+        <v>40</v>
       </c>
       <c r="C74" t="b">
         <v>1</v>
       </c>
       <c r="D74" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E74" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F74" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G74" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H74" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I74" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A75">
-        <v>18</v>
+        <v>53</v>
       </c>
       <c r="B75" s="1" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="C75" t="b">
         <v>1</v>
       </c>
       <c r="D75" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E75" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F75" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G75" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H75" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I75" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A76">
-        <v>24</v>
+        <v>60</v>
       </c>
       <c r="B76" s="1" t="s">
-        <v>91</v>
+        <v>109</v>
       </c>
       <c r="C76" t="b">
         <v>1</v>
       </c>
       <c r="D76" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E76" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F76" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G76" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H76" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I76" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A77">
-        <v>28</v>
+        <v>82</v>
       </c>
       <c r="B77" s="1" t="s">
-        <v>92</v>
+        <v>52</v>
       </c>
       <c r="C77" t="b">
         <v>1</v>
       </c>
       <c r="D77" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E77" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F77" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G77" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H77" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I77" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A78">
-        <v>30</v>
+        <v>83</v>
       </c>
       <c r="B78" s="1" t="s">
-        <v>93</v>
+        <v>104</v>
       </c>
       <c r="C78" t="b">
         <v>1</v>
       </c>
       <c r="D78" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E78" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F78" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G78" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H78" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I78" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A79">
-        <v>46</v>
+        <v>86</v>
       </c>
       <c r="B79" s="1" t="s">
-        <v>94</v>
+        <v>20</v>
       </c>
       <c r="C79" t="b">
         <v>1</v>
       </c>
       <c r="D79" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E79" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F79" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G79" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H79" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I79" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A80">
-        <v>51</v>
+        <v>2</v>
       </c>
       <c r="B80" s="1" t="s">
-        <v>95</v>
+        <v>25</v>
       </c>
       <c r="C80" t="b">
         <v>1</v>
       </c>
       <c r="D80" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E80" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F80" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G80" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H80" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I80" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A81">
-        <v>52</v>
+        <v>8</v>
       </c>
       <c r="B81" s="1" t="s">
-        <v>96</v>
+        <v>76</v>
       </c>
       <c r="C81" t="b">
         <v>1</v>
       </c>
       <c r="D81" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E81" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F81" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G81" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H81" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I81" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A82">
-        <v>56</v>
+        <v>14</v>
       </c>
       <c r="B82" s="1" t="s">
-        <v>97</v>
+        <v>28</v>
       </c>
       <c r="C82" t="b">
         <v>1</v>
       </c>
       <c r="D82" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E82" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F82" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G82" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H82" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I82" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A83">
-        <v>58</v>
+        <v>38</v>
       </c>
       <c r="B83" s="1" t="s">
-        <v>98</v>
+        <v>39</v>
       </c>
       <c r="C83" t="b">
         <v>1</v>
       </c>
       <c r="D83" s="23">
-        <v>2143038.87212</v>
+        <v>2268028.402094</v>
       </c>
       <c r="E83" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F83" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5142000000000005E-2</v>
       </c>
       <c r="G83" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74833899999999998</v>
       </c>
       <c r="H83" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.86883299999999997</v>
       </c>
       <c r="I83" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68047100000000005</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A84">
-        <v>59</v>
+        <v>44</v>
       </c>
       <c r="B84" s="1" t="s">
-        <v>99</v>
+        <v>107</v>
       </c>
       <c r="C84" t="b">
         <v>1</v>
       </c>
       <c r="D84" s="23">
-        <v>2143038.87212</v>
+        <v>2268133.8338950002</v>
       </c>
       <c r="E84" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>4.7999999999999996E-3</v>
       </c>
       <c r="F84" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5192E-2</v>
       </c>
       <c r="G84" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.764073</v>
       </c>
       <c r="H84" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.80568799999999996</v>
       </c>
       <c r="I84" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.63514099999999996</v>
       </c>
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A85">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B85" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C85" t="b">
         <v>1</v>
       </c>
       <c r="D85" s="23">
-        <v>2143038.87212</v>
+        <v>2268334.2587779998</v>
       </c>
       <c r="E85" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.4099999999999998E-3</v>
       </c>
       <c r="F85" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5285999999999997E-2</v>
       </c>
       <c r="G85" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.76053499999999996</v>
       </c>
       <c r="H85" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.82122700000000004</v>
       </c>
       <c r="I85" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.65415299999999998</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A86">
-        <v>66</v>
+        <v>1</v>
       </c>
       <c r="B86" s="1" t="s">
-        <v>101</v>
+        <v>17</v>
       </c>
       <c r="C86" t="b">
         <v>1</v>
       </c>
       <c r="D86" s="23">
-        <v>2143038.87212</v>
+        <v>2268370.0207850002</v>
       </c>
       <c r="E86" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>4.0800000000000003E-3</v>
       </c>
       <c r="F86" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5303E-2</v>
       </c>
       <c r="G86" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.74922999999999995</v>
       </c>
       <c r="H86" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.865259</v>
       </c>
       <c r="I86" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.67600899999999997</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A87">
-        <v>70</v>
+        <v>28</v>
       </c>
       <c r="B87" s="1" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="C87" t="b">
         <v>1</v>
       </c>
       <c r="D87" s="23">
-        <v>2143038.87212</v>
+        <v>2268731.983087</v>
       </c>
       <c r="E87" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>4.0299999999999997E-3</v>
       </c>
       <c r="F87" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>6.5473000000000003E-2</v>
       </c>
       <c r="G87" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.75315299999999996</v>
       </c>
       <c r="H87" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.85135000000000005</v>
       </c>
       <c r="I87" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.66634700000000002</v>
       </c>
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A88">
-        <v>76</v>
+        <v>98</v>
       </c>
       <c r="B88" s="1" t="s">
-        <v>103</v>
+        <v>84</v>
       </c>
       <c r="C88" t="b">
         <v>1</v>
       </c>
       <c r="D88" s="23">
-        <v>2143038.87212</v>
+        <v>2281136.7145639998</v>
       </c>
       <c r="E88" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>1.91E-3</v>
       </c>
       <c r="F88" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>7.1298E-2</v>
       </c>
       <c r="G88" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.64341300000000001</v>
       </c>
       <c r="H88" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.99224100000000004</v>
       </c>
       <c r="I88" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.88838600000000001</v>
       </c>
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A89">
-        <v>83</v>
+        <v>97</v>
       </c>
       <c r="B89" s="1" t="s">
-        <v>104</v>
+        <v>58</v>
       </c>
       <c r="C89" t="b">
         <v>1</v>
       </c>
       <c r="D89" s="23">
-        <v>2143038.87212</v>
+        <v>2307755.4352699998</v>
       </c>
       <c r="E89" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.9199999999999999E-3</v>
       </c>
       <c r="F89" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>8.3798999999999998E-2</v>
       </c>
       <c r="G89" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.735259</v>
       </c>
       <c r="H89" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.89471900000000004</v>
       </c>
       <c r="I89" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.68666199999999999</v>
       </c>
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A90">
-        <v>92</v>
+        <v>19</v>
       </c>
       <c r="B90" s="1" t="s">
-        <v>105</v>
+        <v>60</v>
       </c>
       <c r="C90" t="b">
         <v>1</v>
       </c>
       <c r="D90" s="23">
-        <v>2143038.87212</v>
+        <v>2308739.7811540002</v>
       </c>
       <c r="E90" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>3.6700000000000001E-3</v>
       </c>
       <c r="F90" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>8.4262000000000004E-2</v>
       </c>
       <c r="G90" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.80023999999999995</v>
       </c>
       <c r="H90" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.62698699999999996</v>
       </c>
       <c r="I90" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.50564299999999995</v>
       </c>
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A91">
-        <v>99</v>
+        <v>11</v>
       </c>
       <c r="B91" s="1" t="s">
-        <v>106</v>
+        <v>73</v>
       </c>
       <c r="C91" t="b">
         <v>1</v>
       </c>
       <c r="D91" s="23">
-        <v>2143038.87212</v>
+        <v>2314419.2034749999</v>
       </c>
       <c r="E91" s="22">
-        <v>2.3980000000000001E-2</v>
+        <v>2.2000000000000001E-3</v>
       </c>
       <c r="F91" s="22">
-        <v>1.7099999999999999E-3</v>
+        <v>8.6929000000000006E-2</v>
       </c>
       <c r="G91" s="22">
-        <v>0.99819599999999997</v>
+        <v>0.75442500000000001</v>
       </c>
       <c r="H91" s="9">
-        <v>1.6251999999999999E-2</v>
+        <v>0.82774400000000004</v>
       </c>
       <c r="I91" s="9">
-        <v>3.6310000000000001E-3</v>
+        <v>0.61470800000000003</v>
       </c>
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A92">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B92" s="1" t="s">
-        <v>107</v>
+        <v>79</v>
       </c>
       <c r="C92" t="b">
         <v>1</v>
       </c>
       <c r="D92" s="23">
-        <v>2143425.7225290001</v>
+        <v>2317736.2835809998</v>
       </c>
       <c r="E92" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>1.6299999999999999E-3</v>
       </c>
       <c r="F92" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>8.8486999999999996E-2</v>
       </c>
       <c r="G92" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.75551400000000002</v>
       </c>
       <c r="H92" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.82072900000000004</v>
       </c>
       <c r="I92" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.60533599999999999</v>
       </c>
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A93">
-        <v>50</v>
+        <v>85</v>
       </c>
       <c r="B93" s="1" t="s">
-        <v>108</v>
+        <v>87</v>
       </c>
       <c r="C93" t="b">
         <v>1</v>
       </c>
       <c r="D93" s="23">
-        <v>2143425.7225290001</v>
+        <v>2331608.8719279999</v>
       </c>
       <c r="E93" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>4.3200000000000001E-3</v>
       </c>
       <c r="F93" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>9.5002000000000003E-2</v>
       </c>
       <c r="G93" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.817075</v>
       </c>
       <c r="H93" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.53155600000000003</v>
       </c>
       <c r="I93" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.43461300000000003</v>
       </c>
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A94">
-        <v>60</v>
+        <v>90</v>
       </c>
       <c r="B94" s="1" t="s">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="C94" t="b">
         <v>1</v>
       </c>
       <c r="D94" s="23">
-        <v>2143425.7225290001</v>
+        <v>2335965.9023520001</v>
       </c>
       <c r="E94" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>3.5999999999999999E-3</v>
       </c>
       <c r="F94" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>9.7047999999999995E-2</v>
       </c>
       <c r="G94" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.76443000000000005</v>
       </c>
       <c r="H94" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.77884900000000001</v>
       </c>
       <c r="I94" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.56031500000000001</v>
       </c>
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A95">
-        <v>68</v>
+        <v>10</v>
       </c>
       <c r="B95" s="1" t="s">
-        <v>110</v>
+        <v>63</v>
       </c>
       <c r="C95" t="b">
         <v>1</v>
       </c>
       <c r="D95" s="23">
-        <v>2143425.7225290001</v>
+        <v>2337041.4649479999</v>
       </c>
       <c r="E95" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>2.3800000000000002E-3</v>
       </c>
       <c r="F95" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>9.7553000000000001E-2</v>
       </c>
       <c r="G95" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.76458899999999996</v>
       </c>
       <c r="H95" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.77688199999999996</v>
       </c>
       <c r="I95" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.56070799999999998</v>
       </c>
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A96">
-        <v>71</v>
+        <v>54</v>
       </c>
       <c r="B96" s="1" t="s">
-        <v>111</v>
+        <v>44</v>
       </c>
       <c r="C96" t="b">
         <v>1</v>
       </c>
       <c r="D96" s="23">
-        <v>2143425.7225290001</v>
+        <v>2338562.2860500002</v>
       </c>
       <c r="E96" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>3.49E-3</v>
       </c>
       <c r="F96" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>9.8266999999999993E-2</v>
       </c>
       <c r="G96" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.82142700000000002</v>
       </c>
       <c r="H96" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.51372399999999996</v>
       </c>
       <c r="I96" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.41782999999999998</v>
       </c>
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A97">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="B97" s="1" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="C97" t="b">
         <v>1</v>
       </c>
       <c r="D97" s="23">
-        <v>2143425.7225290001</v>
+        <v>2341970.3315969999</v>
       </c>
       <c r="E97" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>2.5799999999999998E-3</v>
       </c>
       <c r="F97" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>9.9867999999999998E-2</v>
       </c>
       <c r="G97" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.82057199999999997</v>
       </c>
       <c r="H97" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.51497300000000001</v>
       </c>
       <c r="I97" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.41611799999999999</v>
       </c>
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A98">
-        <v>80</v>
+        <v>4</v>
       </c>
       <c r="B98" s="1" t="s">
-        <v>113</v>
+        <v>88</v>
       </c>
       <c r="C98" t="b">
         <v>1</v>
       </c>
       <c r="D98" s="23">
-        <v>2143425.7225290001</v>
+        <v>2347612.811822</v>
       </c>
       <c r="E98" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>3.5300000000000002E-3</v>
       </c>
       <c r="F98" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>0.102518</v>
       </c>
       <c r="G98" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.76780899999999996</v>
       </c>
       <c r="H98" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.74701700000000004</v>
       </c>
       <c r="I98" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.53233699999999995</v>
       </c>
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A99">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="B99" s="1" t="s">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="C99" t="b">
         <v>1</v>
       </c>
       <c r="D99" s="23">
-        <v>2143425.7225290001</v>
+        <v>2350222.5459759999</v>
       </c>
       <c r="E99" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>2.0699999999999998E-3</v>
       </c>
       <c r="F99" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>0.103743</v>
       </c>
       <c r="G99" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.76953000000000005</v>
       </c>
       <c r="H99" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.74728399999999995</v>
       </c>
       <c r="I99" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.53278499999999995</v>
       </c>
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A100">
-        <v>94</v>
+        <v>62</v>
       </c>
       <c r="B100" s="1" t="s">
-        <v>115</v>
+        <v>68</v>
       </c>
       <c r="C100" t="b">
         <v>1</v>
       </c>
       <c r="D100" s="23">
-        <v>2143425.7225290001</v>
+        <v>2351900.1230449998</v>
       </c>
       <c r="E100" s="22">
-        <v>2.7310000000000001E-2</v>
+        <v>2.2499999999999998E-3</v>
       </c>
       <c r="F100" s="22">
-        <v>1.8910000000000001E-3</v>
+        <v>0.104531</v>
       </c>
       <c r="G100" s="22">
-        <v>0.99812000000000001</v>
+        <v>0.76851499999999995</v>
       </c>
       <c r="H100" s="9">
-        <v>1.6459000000000001E-2</v>
+        <v>0.73405500000000001</v>
       </c>
       <c r="I100" s="9">
-        <v>3.7859999999999999E-3</v>
+        <v>0.52594600000000002</v>
       </c>
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A101">
-        <v>5</v>
+        <v>65</v>
       </c>
       <c r="B101" s="1" t="s">
-        <v>116</v>
+        <v>19</v>
       </c>
       <c r="C101" t="b">
         <v>1</v>
       </c>
       <c r="D101" s="23">
-        <v>2144000.9376360001</v>
+        <v>2357589.2809290001</v>
       </c>
       <c r="E101" s="22">
-        <v>2.8500000000000001E-2</v>
+        <v>1.7600000000000001E-3</v>
       </c>
       <c r="F101" s="22">
-        <v>2.1589999999999999E-3</v>
+        <v>0.10720300000000001</v>
       </c>
       <c r="G101" s="22">
-        <v>0.997919</v>
+        <v>0.76630399999999999</v>
       </c>
       <c r="H101" s="9">
-        <v>1.8696999999999998E-2</v>
+        <v>0.72226400000000002</v>
       </c>
       <c r="I101" s="9">
-        <v>4.1879999999999999E-3</v>
+        <v>0.51652200000000004</v>
       </c>
     </row>
   </sheetData>
